--- a/docs/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DS-305_バックアップ要件定義(サンプル＆ガイド).xlsx
+++ b/docs/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DS-305_バックアップ要件定義(サンプル＆ガイド).xlsx
@@ -557,16 +557,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>TIS株式会社</t>
-    <rPh sb="1" eb="3">
-      <t>カブシキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カイシャ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t xml:space="preserve">この 作品 は </t>
     <phoneticPr fontId="2"/>
   </si>
@@ -818,6 +808,9 @@
       <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
   </si>
 </sst>
 </file>
@@ -1483,6 +1476,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1492,6 +1494,33 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1516,41 +1545,32 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1569,33 +1589,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3527,9 +3520,7 @@
       <c r="G31" s="70"/>
       <c r="H31" s="67"/>
       <c r="J31" s="71"/>
-      <c r="R31" s="72" t="s">
-        <v>59</v>
-      </c>
+      <c r="R31" s="72"/>
     </row>
     <row r="32" spans="6:19" ht="13.5" customHeight="1">
       <c r="F32" s="67"/>
@@ -3569,20 +3560,24 @@
     </row>
     <row r="39" spans="2:25" ht="13.5" customHeight="1">
       <c r="B39" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="E39" s="79" t="s">
         <v>60</v>
-      </c>
-      <c r="E39" s="79" t="s">
-        <v>61</v>
       </c>
       <c r="O39" s="76"/>
       <c r="P39" s="76"/>
       <c r="Q39" s="77"/>
       <c r="R39" s="77" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S39" s="76"/>
     </row>
-    <row r="40" spans="2:25" ht="13.5" customHeight="1"/>
+    <row r="40" spans="2:25" ht="13.5" customHeight="1">
+      <c r="B40" s="63" t="s">
+        <v>74</v>
+      </c>
+    </row>
     <row r="41" spans="2:25" ht="13.5" customHeight="1">
       <c r="X41" s="80"/>
       <c r="Y41" s="80"/>
@@ -4075,7 +4070,7 @@
     <hyperlink ref="E39" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -4120,284 +4115,284 @@
       <c r="B11" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="86" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="88"/>
-      <c r="M11" s="89" t="s">
+      <c r="C11" s="98" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="100"/>
+      <c r="M11" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="N11" s="87"/>
-      <c r="O11" s="87"/>
-      <c r="P11" s="87"/>
-      <c r="Q11" s="87"/>
-      <c r="R11" s="87"/>
-      <c r="S11" s="87"/>
-      <c r="T11" s="87"/>
-      <c r="U11" s="87"/>
-      <c r="V11" s="87"/>
-      <c r="W11" s="87"/>
-      <c r="X11" s="87"/>
-      <c r="Y11" s="87"/>
-      <c r="Z11" s="87"/>
-      <c r="AA11" s="88"/>
-      <c r="AB11" s="90" t="s">
+      <c r="N11" s="99"/>
+      <c r="O11" s="99"/>
+      <c r="P11" s="99"/>
+      <c r="Q11" s="99"/>
+      <c r="R11" s="99"/>
+      <c r="S11" s="99"/>
+      <c r="T11" s="99"/>
+      <c r="U11" s="99"/>
+      <c r="V11" s="99"/>
+      <c r="W11" s="99"/>
+      <c r="X11" s="99"/>
+      <c r="Y11" s="99"/>
+      <c r="Z11" s="99"/>
+      <c r="AA11" s="100"/>
+      <c r="AB11" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="AC11" s="90"/>
-      <c r="AD11" s="90"/>
-      <c r="AE11" s="90"/>
-      <c r="AF11" s="90"/>
-      <c r="AG11" s="90"/>
-      <c r="AH11" s="90"/>
+      <c r="AC11" s="102"/>
+      <c r="AD11" s="102"/>
+      <c r="AE11" s="102"/>
+      <c r="AF11" s="102"/>
+      <c r="AG11" s="102"/>
+      <c r="AH11" s="102"/>
     </row>
     <row r="12" spans="1:34" ht="24" customHeight="1" thickTop="1">
-      <c r="B12" s="94">
+      <c r="B12" s="83">
         <v>1</v>
       </c>
-      <c r="C12" s="97" t="s">
+      <c r="C12" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="98"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="91" t="s">
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="103" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="104"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="104"/>
+      <c r="K12" s="104"/>
+      <c r="L12" s="105"/>
+      <c r="M12" s="103" t="s">
+        <v>10</v>
+      </c>
+      <c r="N12" s="104"/>
+      <c r="O12" s="104"/>
+      <c r="P12" s="104"/>
+      <c r="Q12" s="104"/>
+      <c r="R12" s="104"/>
+      <c r="S12" s="104"/>
+      <c r="T12" s="104"/>
+      <c r="U12" s="104"/>
+      <c r="V12" s="104"/>
+      <c r="W12" s="104"/>
+      <c r="X12" s="104"/>
+      <c r="Y12" s="104"/>
+      <c r="Z12" s="104"/>
+      <c r="AA12" s="105"/>
+      <c r="AB12" s="103"/>
+      <c r="AC12" s="104"/>
+      <c r="AD12" s="104"/>
+      <c r="AE12" s="104"/>
+      <c r="AF12" s="104"/>
+      <c r="AG12" s="104"/>
+      <c r="AH12" s="105"/>
+    </row>
+    <row r="13" spans="1:34" ht="24" customHeight="1">
+      <c r="B13" s="84"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="H12" s="92"/>
-      <c r="I12" s="92"/>
-      <c r="J12" s="92"/>
-      <c r="K12" s="92"/>
-      <c r="L12" s="93"/>
-      <c r="M12" s="91" t="s">
-        <v>10</v>
-      </c>
-      <c r="N12" s="92"/>
-      <c r="O12" s="92"/>
-      <c r="P12" s="92"/>
-      <c r="Q12" s="92"/>
-      <c r="R12" s="92"/>
-      <c r="S12" s="92"/>
-      <c r="T12" s="92"/>
-      <c r="U12" s="92"/>
-      <c r="V12" s="92"/>
-      <c r="W12" s="92"/>
-      <c r="X12" s="92"/>
-      <c r="Y12" s="92"/>
-      <c r="Z12" s="92"/>
-      <c r="AA12" s="93"/>
-      <c r="AB12" s="91"/>
-      <c r="AC12" s="92"/>
-      <c r="AD12" s="92"/>
-      <c r="AE12" s="92"/>
-      <c r="AF12" s="92"/>
-      <c r="AG12" s="92"/>
-      <c r="AH12" s="93"/>
-    </row>
-    <row r="13" spans="1:34" ht="24" customHeight="1">
-      <c r="B13" s="95"/>
-      <c r="C13" s="100"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="103" t="s">
+      <c r="H13" s="96"/>
+      <c r="I13" s="96"/>
+      <c r="J13" s="96"/>
+      <c r="K13" s="96"/>
+      <c r="L13" s="97"/>
+      <c r="M13" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="N13" s="96"/>
+      <c r="O13" s="96"/>
+      <c r="P13" s="96"/>
+      <c r="Q13" s="96"/>
+      <c r="R13" s="96"/>
+      <c r="S13" s="96"/>
+      <c r="T13" s="96"/>
+      <c r="U13" s="96"/>
+      <c r="V13" s="96"/>
+      <c r="W13" s="96"/>
+      <c r="X13" s="96"/>
+      <c r="Y13" s="96"/>
+      <c r="Z13" s="96"/>
+      <c r="AA13" s="97"/>
+      <c r="AB13" s="95"/>
+      <c r="AC13" s="96"/>
+      <c r="AD13" s="96"/>
+      <c r="AE13" s="96"/>
+      <c r="AF13" s="96"/>
+      <c r="AG13" s="96"/>
+      <c r="AH13" s="97"/>
+    </row>
+    <row r="14" spans="1:34" ht="24" customHeight="1">
+      <c r="B14" s="84"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="H13" s="104"/>
-      <c r="I13" s="104"/>
-      <c r="J13" s="104"/>
-      <c r="K13" s="104"/>
-      <c r="L13" s="105"/>
-      <c r="M13" s="103" t="s">
-        <v>11</v>
-      </c>
-      <c r="N13" s="104"/>
-      <c r="O13" s="104"/>
-      <c r="P13" s="104"/>
-      <c r="Q13" s="104"/>
-      <c r="R13" s="104"/>
-      <c r="S13" s="104"/>
-      <c r="T13" s="104"/>
-      <c r="U13" s="104"/>
-      <c r="V13" s="104"/>
-      <c r="W13" s="104"/>
-      <c r="X13" s="104"/>
-      <c r="Y13" s="104"/>
-      <c r="Z13" s="104"/>
-      <c r="AA13" s="105"/>
-      <c r="AB13" s="103"/>
-      <c r="AC13" s="104"/>
-      <c r="AD13" s="104"/>
-      <c r="AE13" s="104"/>
-      <c r="AF13" s="104"/>
-      <c r="AG13" s="104"/>
-      <c r="AH13" s="105"/>
-    </row>
-    <row r="14" spans="1:34" ht="24" customHeight="1">
-      <c r="B14" s="95"/>
-      <c r="C14" s="100"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="103" t="s">
+      <c r="H14" s="96"/>
+      <c r="I14" s="96"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="97"/>
+      <c r="M14" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14" s="87"/>
+      <c r="O14" s="87"/>
+      <c r="P14" s="87"/>
+      <c r="Q14" s="87"/>
+      <c r="R14" s="87"/>
+      <c r="S14" s="87"/>
+      <c r="T14" s="87"/>
+      <c r="U14" s="87"/>
+      <c r="V14" s="87"/>
+      <c r="W14" s="87"/>
+      <c r="X14" s="87"/>
+      <c r="Y14" s="87"/>
+      <c r="Z14" s="87"/>
+      <c r="AA14" s="88"/>
+      <c r="AB14" s="86"/>
+      <c r="AC14" s="87"/>
+      <c r="AD14" s="87"/>
+      <c r="AE14" s="87"/>
+      <c r="AF14" s="87"/>
+      <c r="AG14" s="87"/>
+      <c r="AH14" s="88"/>
+    </row>
+    <row r="15" spans="1:34" ht="24" customHeight="1">
+      <c r="B15" s="84"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="H14" s="104"/>
-      <c r="I14" s="104"/>
-      <c r="J14" s="104"/>
-      <c r="K14" s="104"/>
-      <c r="L14" s="105"/>
-      <c r="M14" s="83" t="s">
-        <v>12</v>
-      </c>
-      <c r="N14" s="84"/>
-      <c r="O14" s="84"/>
-      <c r="P14" s="84"/>
-      <c r="Q14" s="84"/>
-      <c r="R14" s="84"/>
-      <c r="S14" s="84"/>
-      <c r="T14" s="84"/>
-      <c r="U14" s="84"/>
-      <c r="V14" s="84"/>
-      <c r="W14" s="84"/>
-      <c r="X14" s="84"/>
-      <c r="Y14" s="84"/>
-      <c r="Z14" s="84"/>
-      <c r="AA14" s="85"/>
-      <c r="AB14" s="83"/>
-      <c r="AC14" s="84"/>
-      <c r="AD14" s="84"/>
-      <c r="AE14" s="84"/>
-      <c r="AF14" s="84"/>
-      <c r="AG14" s="84"/>
-      <c r="AH14" s="85"/>
-    </row>
-    <row r="15" spans="1:34" ht="24" customHeight="1">
-      <c r="B15" s="95"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="103" t="s">
+      <c r="H15" s="96"/>
+      <c r="I15" s="96"/>
+      <c r="J15" s="96"/>
+      <c r="K15" s="96"/>
+      <c r="L15" s="97"/>
+      <c r="M15" s="86" t="s">
+        <v>13</v>
+      </c>
+      <c r="N15" s="87"/>
+      <c r="O15" s="87"/>
+      <c r="P15" s="87"/>
+      <c r="Q15" s="87"/>
+      <c r="R15" s="87"/>
+      <c r="S15" s="87"/>
+      <c r="T15" s="87"/>
+      <c r="U15" s="87"/>
+      <c r="V15" s="87"/>
+      <c r="W15" s="87"/>
+      <c r="X15" s="87"/>
+      <c r="Y15" s="87"/>
+      <c r="Z15" s="87"/>
+      <c r="AA15" s="88"/>
+      <c r="AB15" s="86"/>
+      <c r="AC15" s="87"/>
+      <c r="AD15" s="87"/>
+      <c r="AE15" s="87"/>
+      <c r="AF15" s="87"/>
+      <c r="AG15" s="87"/>
+      <c r="AH15" s="88"/>
+    </row>
+    <row r="16" spans="1:34" ht="24" customHeight="1">
+      <c r="B16" s="84"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="H15" s="104"/>
-      <c r="I15" s="104"/>
-      <c r="J15" s="104"/>
-      <c r="K15" s="104"/>
-      <c r="L15" s="105"/>
-      <c r="M15" s="83" t="s">
-        <v>13</v>
-      </c>
-      <c r="N15" s="84"/>
-      <c r="O15" s="84"/>
-      <c r="P15" s="84"/>
-      <c r="Q15" s="84"/>
-      <c r="R15" s="84"/>
-      <c r="S15" s="84"/>
-      <c r="T15" s="84"/>
-      <c r="U15" s="84"/>
-      <c r="V15" s="84"/>
-      <c r="W15" s="84"/>
-      <c r="X15" s="84"/>
-      <c r="Y15" s="84"/>
-      <c r="Z15" s="84"/>
-      <c r="AA15" s="85"/>
-      <c r="AB15" s="83"/>
-      <c r="AC15" s="84"/>
-      <c r="AD15" s="84"/>
-      <c r="AE15" s="84"/>
-      <c r="AF15" s="84"/>
-      <c r="AG15" s="84"/>
-      <c r="AH15" s="85"/>
-    </row>
-    <row r="16" spans="1:34" ht="24" customHeight="1">
-      <c r="B16" s="95"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="103" t="s">
+      <c r="H16" s="96"/>
+      <c r="I16" s="96"/>
+      <c r="J16" s="96"/>
+      <c r="K16" s="96"/>
+      <c r="L16" s="97"/>
+      <c r="M16" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="N16" s="87"/>
+      <c r="O16" s="87"/>
+      <c r="P16" s="87"/>
+      <c r="Q16" s="87"/>
+      <c r="R16" s="87"/>
+      <c r="S16" s="87"/>
+      <c r="T16" s="87"/>
+      <c r="U16" s="87"/>
+      <c r="V16" s="87"/>
+      <c r="W16" s="87"/>
+      <c r="X16" s="87"/>
+      <c r="Y16" s="87"/>
+      <c r="Z16" s="87"/>
+      <c r="AA16" s="88"/>
+      <c r="AB16" s="86"/>
+      <c r="AC16" s="87"/>
+      <c r="AD16" s="87"/>
+      <c r="AE16" s="87"/>
+      <c r="AF16" s="87"/>
+      <c r="AG16" s="87"/>
+      <c r="AH16" s="88"/>
+    </row>
+    <row r="17" spans="1:34" ht="24" customHeight="1">
+      <c r="B17" s="85"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="H16" s="104"/>
-      <c r="I16" s="104"/>
-      <c r="J16" s="104"/>
-      <c r="K16" s="104"/>
-      <c r="L16" s="105"/>
-      <c r="M16" s="83" t="s">
-        <v>14</v>
-      </c>
-      <c r="N16" s="84"/>
-      <c r="O16" s="84"/>
-      <c r="P16" s="84"/>
-      <c r="Q16" s="84"/>
-      <c r="R16" s="84"/>
-      <c r="S16" s="84"/>
-      <c r="T16" s="84"/>
-      <c r="U16" s="84"/>
-      <c r="V16" s="84"/>
-      <c r="W16" s="84"/>
-      <c r="X16" s="84"/>
-      <c r="Y16" s="84"/>
-      <c r="Z16" s="84"/>
-      <c r="AA16" s="85"/>
-      <c r="AB16" s="83"/>
-      <c r="AC16" s="84"/>
-      <c r="AD16" s="84"/>
-      <c r="AE16" s="84"/>
-      <c r="AF16" s="84"/>
-      <c r="AG16" s="84"/>
-      <c r="AH16" s="85"/>
-    </row>
-    <row r="17" spans="1:34" ht="24" customHeight="1">
-      <c r="B17" s="96"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="83" t="s">
-        <v>68</v>
-      </c>
-      <c r="H17" s="84"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="84"/>
-      <c r="K17" s="84"/>
-      <c r="L17" s="85"/>
-      <c r="M17" s="83" t="s">
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="88"/>
+      <c r="M17" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="N17" s="84"/>
-      <c r="O17" s="84"/>
-      <c r="P17" s="84"/>
-      <c r="Q17" s="84"/>
-      <c r="R17" s="84"/>
-      <c r="S17" s="84"/>
-      <c r="T17" s="84"/>
-      <c r="U17" s="84"/>
-      <c r="V17" s="84"/>
-      <c r="W17" s="84"/>
-      <c r="X17" s="84"/>
-      <c r="Y17" s="84"/>
-      <c r="Z17" s="84"/>
-      <c r="AA17" s="85"/>
-      <c r="AB17" s="83" t="s">
+      <c r="N17" s="87"/>
+      <c r="O17" s="87"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="87"/>
+      <c r="R17" s="87"/>
+      <c r="S17" s="87"/>
+      <c r="T17" s="87"/>
+      <c r="U17" s="87"/>
+      <c r="V17" s="87"/>
+      <c r="W17" s="87"/>
+      <c r="X17" s="87"/>
+      <c r="Y17" s="87"/>
+      <c r="Z17" s="87"/>
+      <c r="AA17" s="88"/>
+      <c r="AB17" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="AC17" s="84"/>
-      <c r="AD17" s="84"/>
-      <c r="AE17" s="84"/>
-      <c r="AF17" s="84"/>
-      <c r="AG17" s="84"/>
-      <c r="AH17" s="85"/>
+      <c r="AC17" s="87"/>
+      <c r="AD17" s="87"/>
+      <c r="AE17" s="87"/>
+      <c r="AF17" s="87"/>
+      <c r="AG17" s="87"/>
+      <c r="AH17" s="88"/>
     </row>
     <row r="18" spans="1:34" ht="24" customHeight="1">
       <c r="A18" s="61"/>
@@ -4407,7 +4402,7 @@
       <c r="E18" s="81"/>
       <c r="F18" s="81"/>
       <c r="G18" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H18" s="81"/>
       <c r="I18" s="81"/>
@@ -4448,6 +4443,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="M16:AA16"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="M11:AA11"/>
+    <mergeCell ref="AB11:AH11"/>
+    <mergeCell ref="G12:L12"/>
+    <mergeCell ref="M12:AA12"/>
+    <mergeCell ref="AB12:AH12"/>
     <mergeCell ref="B12:B17"/>
     <mergeCell ref="AB16:AH16"/>
     <mergeCell ref="G17:L17"/>
@@ -4464,13 +4466,6 @@
     <mergeCell ref="M15:AA15"/>
     <mergeCell ref="AB15:AH15"/>
     <mergeCell ref="G16:L16"/>
-    <mergeCell ref="M16:AA16"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="M11:AA11"/>
-    <mergeCell ref="AB11:AH11"/>
-    <mergeCell ref="G12:L12"/>
-    <mergeCell ref="M12:AA12"/>
-    <mergeCell ref="AB12:AH12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4635,7 +4630,7 @@
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="D6" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E6" s="30"/>
       <c r="F6" s="31"/>
@@ -5178,34 +5173,34 @@
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="106" t="s">
+      <c r="E19" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="107"/>
-      <c r="G19" s="107"/>
-      <c r="H19" s="108"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="117"/>
       <c r="I19" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="J19" s="120"/>
-      <c r="K19" s="120"/>
-      <c r="L19" s="120"/>
-      <c r="M19" s="120"/>
-      <c r="N19" s="120"/>
-      <c r="O19" s="120"/>
-      <c r="P19" s="113"/>
-      <c r="Q19" s="116" t="s">
+      <c r="J19" s="113"/>
+      <c r="K19" s="113"/>
+      <c r="L19" s="113"/>
+      <c r="M19" s="113"/>
+      <c r="N19" s="113"/>
+      <c r="O19" s="113"/>
+      <c r="P19" s="114"/>
+      <c r="Q19" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="R19" s="117"/>
-      <c r="S19" s="116" t="s">
+      <c r="R19" s="109"/>
+      <c r="S19" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="T19" s="117"/>
-      <c r="U19" s="116" t="s">
+      <c r="T19" s="109"/>
+      <c r="U19" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="V19" s="117"/>
+      <c r="V19" s="109"/>
       <c r="W19" s="34"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
@@ -5228,32 +5223,32 @@
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
       <c r="D20" s="9"/>
-      <c r="E20" s="109"/>
-      <c r="F20" s="110"/>
-      <c r="G20" s="110"/>
-      <c r="H20" s="111"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="120"/>
       <c r="I20" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="J20" s="113"/>
+      <c r="J20" s="114"/>
       <c r="K20" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="L20" s="113"/>
+      <c r="L20" s="114"/>
       <c r="M20" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="N20" s="113"/>
+      <c r="N20" s="114"/>
       <c r="O20" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="P20" s="113"/>
-      <c r="Q20" s="118"/>
-      <c r="R20" s="119"/>
-      <c r="S20" s="118"/>
-      <c r="T20" s="119"/>
-      <c r="U20" s="118"/>
-      <c r="V20" s="119"/>
+      <c r="P20" s="114"/>
+      <c r="Q20" s="110"/>
+      <c r="R20" s="111"/>
+      <c r="S20" s="110"/>
+      <c r="T20" s="111"/>
+      <c r="U20" s="110"/>
+      <c r="V20" s="111"/>
       <c r="W20" s="34"/>
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
@@ -5282,28 +5277,28 @@
       <c r="F21" s="56"/>
       <c r="G21" s="56"/>
       <c r="H21" s="57"/>
-      <c r="I21" s="114" t="s">
+      <c r="I21" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="J21" s="115"/>
-      <c r="K21" s="114"/>
-      <c r="L21" s="115"/>
-      <c r="M21" s="114"/>
-      <c r="N21" s="115"/>
-      <c r="O21" s="114"/>
-      <c r="P21" s="115"/>
-      <c r="Q21" s="114" t="s">
+      <c r="J21" s="107"/>
+      <c r="K21" s="106"/>
+      <c r="L21" s="107"/>
+      <c r="M21" s="106"/>
+      <c r="N21" s="107"/>
+      <c r="O21" s="106"/>
+      <c r="P21" s="107"/>
+      <c r="Q21" s="106" t="s">
         <v>33</v>
       </c>
-      <c r="R21" s="115"/>
-      <c r="S21" s="114">
+      <c r="R21" s="107"/>
+      <c r="S21" s="106">
         <v>5</v>
       </c>
-      <c r="T21" s="115"/>
-      <c r="U21" s="114" t="s">
+      <c r="T21" s="107"/>
+      <c r="U21" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="V21" s="115"/>
+      <c r="V21" s="107"/>
       <c r="W21" s="34"/>
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
@@ -5332,30 +5327,30 @@
       <c r="F22" s="56"/>
       <c r="G22" s="56"/>
       <c r="H22" s="57"/>
-      <c r="I22" s="114" t="s">
+      <c r="I22" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="J22" s="115"/>
-      <c r="K22" s="114" t="s">
+      <c r="J22" s="107"/>
+      <c r="K22" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="L22" s="115"/>
-      <c r="M22" s="114"/>
-      <c r="N22" s="115"/>
-      <c r="O22" s="114"/>
-      <c r="P22" s="115"/>
-      <c r="Q22" s="114" t="s">
+      <c r="L22" s="107"/>
+      <c r="M22" s="106"/>
+      <c r="N22" s="107"/>
+      <c r="O22" s="106"/>
+      <c r="P22" s="107"/>
+      <c r="Q22" s="106" t="s">
         <v>33</v>
       </c>
-      <c r="R22" s="115"/>
-      <c r="S22" s="114">
+      <c r="R22" s="107"/>
+      <c r="S22" s="106">
         <v>2</v>
       </c>
-      <c r="T22" s="115"/>
-      <c r="U22" s="114" t="s">
+      <c r="T22" s="107"/>
+      <c r="U22" s="106" t="s">
         <v>38</v>
       </c>
-      <c r="V22" s="115"/>
+      <c r="V22" s="107"/>
       <c r="W22" s="34"/>
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
@@ -5384,26 +5379,26 @@
       <c r="F23" s="53"/>
       <c r="G23" s="53"/>
       <c r="H23" s="54"/>
-      <c r="I23" s="114"/>
-      <c r="J23" s="115"/>
-      <c r="K23" s="114"/>
-      <c r="L23" s="115"/>
-      <c r="M23" s="114"/>
-      <c r="N23" s="115"/>
-      <c r="O23" s="114" t="s">
+      <c r="I23" s="106"/>
+      <c r="J23" s="107"/>
+      <c r="K23" s="106"/>
+      <c r="L23" s="107"/>
+      <c r="M23" s="106"/>
+      <c r="N23" s="107"/>
+      <c r="O23" s="106" t="s">
         <v>37</v>
       </c>
-      <c r="P23" s="115"/>
-      <c r="Q23" s="114" t="s">
+      <c r="P23" s="107"/>
+      <c r="Q23" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="R23" s="115"/>
-      <c r="S23" s="114">
+      <c r="R23" s="107"/>
+      <c r="S23" s="106">
         <v>2</v>
       </c>
-      <c r="T23" s="115"/>
-      <c r="U23" s="114"/>
-      <c r="V23" s="115"/>
+      <c r="T23" s="107"/>
+      <c r="U23" s="106"/>
+      <c r="V23" s="107"/>
       <c r="W23" s="3" t="s">
         <v>49</v>
       </c>
@@ -5434,26 +5429,26 @@
       <c r="F24" s="53"/>
       <c r="G24" s="53"/>
       <c r="H24" s="54"/>
-      <c r="I24" s="114" t="s">
+      <c r="I24" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="J24" s="115"/>
-      <c r="K24" s="114"/>
-      <c r="L24" s="115"/>
-      <c r="M24" s="114"/>
-      <c r="N24" s="115"/>
-      <c r="O24" s="114"/>
-      <c r="P24" s="115"/>
-      <c r="Q24" s="114" t="s">
+      <c r="J24" s="107"/>
+      <c r="K24" s="106"/>
+      <c r="L24" s="107"/>
+      <c r="M24" s="106"/>
+      <c r="N24" s="107"/>
+      <c r="O24" s="106"/>
+      <c r="P24" s="107"/>
+      <c r="Q24" s="106" t="s">
         <v>33</v>
       </c>
-      <c r="R24" s="115"/>
-      <c r="S24" s="114">
+      <c r="R24" s="107"/>
+      <c r="S24" s="106">
         <v>2</v>
       </c>
-      <c r="T24" s="115"/>
-      <c r="U24" s="114"/>
-      <c r="V24" s="115"/>
+      <c r="T24" s="107"/>
+      <c r="U24" s="106"/>
+      <c r="V24" s="107"/>
       <c r="W24" s="35"/>
       <c r="X24" s="35"/>
       <c r="Y24" s="35"/>
@@ -5518,7 +5513,7 @@
       <c r="B26" s="3"/>
       <c r="C26" s="5"/>
       <c r="D26" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E26" s="62"/>
       <c r="F26" s="35"/>
@@ -5804,7 +5799,7 @@
       <c r="B33" s="3"/>
       <c r="C33" s="5"/>
       <c r="D33" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E33" s="11"/>
       <c r="F33" s="6"/>
@@ -5847,7 +5842,7 @@
       <c r="C34" s="4"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
@@ -6248,6 +6243,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="E19:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q19:R20"/>
+    <mergeCell ref="S19:T20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:P22"/>
     <mergeCell ref="U24:V24"/>
     <mergeCell ref="U19:V20"/>
     <mergeCell ref="U21:V21"/>
@@ -6264,27 +6280,6 @@
     <mergeCell ref="I23:J23"/>
     <mergeCell ref="I24:J24"/>
     <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q19:R20"/>
-    <mergeCell ref="S19:T20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="E19:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="I21:J21"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/docs/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DS-305_バックアップ要件定義(サンプル＆ガイド).xlsx
+++ b/docs/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DS-305_バックアップ要件定義(サンプル＆ガイド).xlsx
@@ -557,6 +557,16 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
+    <t>TIS株式会社</t>
+    <rPh sb="1" eb="3">
+      <t>カブシキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイシャ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
     <t xml:space="preserve">この 作品 は </t>
     <phoneticPr fontId="2"/>
   </si>
@@ -808,9 +818,6 @@
       <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
   </si>
 </sst>
 </file>
@@ -1476,6 +1483,39 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1485,15 +1525,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1521,29 +1552,29 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1563,32 +1594,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3520,7 +3527,9 @@
       <c r="G31" s="70"/>
       <c r="H31" s="67"/>
       <c r="J31" s="71"/>
-      <c r="R31" s="72"/>
+      <c r="R31" s="72" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="32" spans="6:19" ht="13.5" customHeight="1">
       <c r="F32" s="67"/>
@@ -3560,24 +3569,20 @@
     </row>
     <row r="39" spans="2:25" ht="13.5" customHeight="1">
       <c r="B39" s="63" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E39" s="79" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O39" s="76"/>
       <c r="P39" s="76"/>
       <c r="Q39" s="77"/>
       <c r="R39" s="77" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S39" s="76"/>
     </row>
-    <row r="40" spans="2:25" ht="13.5" customHeight="1">
-      <c r="B40" s="63" t="s">
-        <v>74</v>
-      </c>
-    </row>
+    <row r="40" spans="2:25" ht="13.5" customHeight="1"/>
     <row r="41" spans="2:25" ht="13.5" customHeight="1">
       <c r="X41" s="80"/>
       <c r="Y41" s="80"/>
@@ -4070,7 +4075,7 @@
     <hyperlink ref="E39" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -4115,284 +4120,284 @@
       <c r="B11" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="98" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="99"/>
-      <c r="K11" s="99"/>
-      <c r="L11" s="100"/>
-      <c r="M11" s="101" t="s">
+      <c r="C11" s="86" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="88"/>
+      <c r="M11" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="N11" s="99"/>
-      <c r="O11" s="99"/>
-      <c r="P11" s="99"/>
-      <c r="Q11" s="99"/>
-      <c r="R11" s="99"/>
-      <c r="S11" s="99"/>
-      <c r="T11" s="99"/>
-      <c r="U11" s="99"/>
-      <c r="V11" s="99"/>
-      <c r="W11" s="99"/>
-      <c r="X11" s="99"/>
-      <c r="Y11" s="99"/>
-      <c r="Z11" s="99"/>
-      <c r="AA11" s="100"/>
-      <c r="AB11" s="102" t="s">
+      <c r="N11" s="87"/>
+      <c r="O11" s="87"/>
+      <c r="P11" s="87"/>
+      <c r="Q11" s="87"/>
+      <c r="R11" s="87"/>
+      <c r="S11" s="87"/>
+      <c r="T11" s="87"/>
+      <c r="U11" s="87"/>
+      <c r="V11" s="87"/>
+      <c r="W11" s="87"/>
+      <c r="X11" s="87"/>
+      <c r="Y11" s="87"/>
+      <c r="Z11" s="87"/>
+      <c r="AA11" s="88"/>
+      <c r="AB11" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="AC11" s="102"/>
-      <c r="AD11" s="102"/>
-      <c r="AE11" s="102"/>
-      <c r="AF11" s="102"/>
-      <c r="AG11" s="102"/>
-      <c r="AH11" s="102"/>
+      <c r="AC11" s="90"/>
+      <c r="AD11" s="90"/>
+      <c r="AE11" s="90"/>
+      <c r="AF11" s="90"/>
+      <c r="AG11" s="90"/>
+      <c r="AH11" s="90"/>
     </row>
     <row r="12" spans="1:34" ht="24" customHeight="1" thickTop="1">
-      <c r="B12" s="83">
+      <c r="B12" s="94">
         <v>1</v>
       </c>
-      <c r="C12" s="89" t="s">
+      <c r="C12" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="103" t="s">
-        <v>62</v>
-      </c>
-      <c r="H12" s="104"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="104"/>
-      <c r="K12" s="104"/>
-      <c r="L12" s="105"/>
-      <c r="M12" s="103" t="s">
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="91" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="92"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="92"/>
+      <c r="K12" s="92"/>
+      <c r="L12" s="93"/>
+      <c r="M12" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="N12" s="104"/>
-      <c r="O12" s="104"/>
-      <c r="P12" s="104"/>
-      <c r="Q12" s="104"/>
-      <c r="R12" s="104"/>
-      <c r="S12" s="104"/>
-      <c r="T12" s="104"/>
-      <c r="U12" s="104"/>
-      <c r="V12" s="104"/>
-      <c r="W12" s="104"/>
-      <c r="X12" s="104"/>
-      <c r="Y12" s="104"/>
-      <c r="Z12" s="104"/>
-      <c r="AA12" s="105"/>
-      <c r="AB12" s="103"/>
-      <c r="AC12" s="104"/>
-      <c r="AD12" s="104"/>
-      <c r="AE12" s="104"/>
-      <c r="AF12" s="104"/>
-      <c r="AG12" s="104"/>
-      <c r="AH12" s="105"/>
+      <c r="N12" s="92"/>
+      <c r="O12" s="92"/>
+      <c r="P12" s="92"/>
+      <c r="Q12" s="92"/>
+      <c r="R12" s="92"/>
+      <c r="S12" s="92"/>
+      <c r="T12" s="92"/>
+      <c r="U12" s="92"/>
+      <c r="V12" s="92"/>
+      <c r="W12" s="92"/>
+      <c r="X12" s="92"/>
+      <c r="Y12" s="92"/>
+      <c r="Z12" s="92"/>
+      <c r="AA12" s="93"/>
+      <c r="AB12" s="91"/>
+      <c r="AC12" s="92"/>
+      <c r="AD12" s="92"/>
+      <c r="AE12" s="92"/>
+      <c r="AF12" s="92"/>
+      <c r="AG12" s="92"/>
+      <c r="AH12" s="93"/>
     </row>
     <row r="13" spans="1:34" ht="24" customHeight="1">
-      <c r="B13" s="84"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="95" t="s">
-        <v>63</v>
-      </c>
-      <c r="H13" s="96"/>
-      <c r="I13" s="96"/>
-      <c r="J13" s="96"/>
-      <c r="K13" s="96"/>
-      <c r="L13" s="97"/>
-      <c r="M13" s="95" t="s">
+      <c r="B13" s="95"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="103" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="104"/>
+      <c r="I13" s="104"/>
+      <c r="J13" s="104"/>
+      <c r="K13" s="104"/>
+      <c r="L13" s="105"/>
+      <c r="M13" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="N13" s="96"/>
-      <c r="O13" s="96"/>
-      <c r="P13" s="96"/>
-      <c r="Q13" s="96"/>
-      <c r="R13" s="96"/>
-      <c r="S13" s="96"/>
-      <c r="T13" s="96"/>
-      <c r="U13" s="96"/>
-      <c r="V13" s="96"/>
-      <c r="W13" s="96"/>
-      <c r="X13" s="96"/>
-      <c r="Y13" s="96"/>
-      <c r="Z13" s="96"/>
-      <c r="AA13" s="97"/>
-      <c r="AB13" s="95"/>
-      <c r="AC13" s="96"/>
-      <c r="AD13" s="96"/>
-      <c r="AE13" s="96"/>
-      <c r="AF13" s="96"/>
-      <c r="AG13" s="96"/>
-      <c r="AH13" s="97"/>
+      <c r="N13" s="104"/>
+      <c r="O13" s="104"/>
+      <c r="P13" s="104"/>
+      <c r="Q13" s="104"/>
+      <c r="R13" s="104"/>
+      <c r="S13" s="104"/>
+      <c r="T13" s="104"/>
+      <c r="U13" s="104"/>
+      <c r="V13" s="104"/>
+      <c r="W13" s="104"/>
+      <c r="X13" s="104"/>
+      <c r="Y13" s="104"/>
+      <c r="Z13" s="104"/>
+      <c r="AA13" s="105"/>
+      <c r="AB13" s="103"/>
+      <c r="AC13" s="104"/>
+      <c r="AD13" s="104"/>
+      <c r="AE13" s="104"/>
+      <c r="AF13" s="104"/>
+      <c r="AG13" s="104"/>
+      <c r="AH13" s="105"/>
     </row>
     <row r="14" spans="1:34" ht="24" customHeight="1">
-      <c r="B14" s="84"/>
-      <c r="C14" s="92"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="95" t="s">
-        <v>64</v>
-      </c>
-      <c r="H14" s="96"/>
-      <c r="I14" s="96"/>
-      <c r="J14" s="96"/>
-      <c r="K14" s="96"/>
-      <c r="L14" s="97"/>
-      <c r="M14" s="86" t="s">
+      <c r="B14" s="95"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="103" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="104"/>
+      <c r="I14" s="104"/>
+      <c r="J14" s="104"/>
+      <c r="K14" s="104"/>
+      <c r="L14" s="105"/>
+      <c r="M14" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="N14" s="87"/>
-      <c r="O14" s="87"/>
-      <c r="P14" s="87"/>
-      <c r="Q14" s="87"/>
-      <c r="R14" s="87"/>
-      <c r="S14" s="87"/>
-      <c r="T14" s="87"/>
-      <c r="U14" s="87"/>
-      <c r="V14" s="87"/>
-      <c r="W14" s="87"/>
-      <c r="X14" s="87"/>
-      <c r="Y14" s="87"/>
-      <c r="Z14" s="87"/>
-      <c r="AA14" s="88"/>
-      <c r="AB14" s="86"/>
-      <c r="AC14" s="87"/>
-      <c r="AD14" s="87"/>
-      <c r="AE14" s="87"/>
-      <c r="AF14" s="87"/>
-      <c r="AG14" s="87"/>
-      <c r="AH14" s="88"/>
+      <c r="N14" s="84"/>
+      <c r="O14" s="84"/>
+      <c r="P14" s="84"/>
+      <c r="Q14" s="84"/>
+      <c r="R14" s="84"/>
+      <c r="S14" s="84"/>
+      <c r="T14" s="84"/>
+      <c r="U14" s="84"/>
+      <c r="V14" s="84"/>
+      <c r="W14" s="84"/>
+      <c r="X14" s="84"/>
+      <c r="Y14" s="84"/>
+      <c r="Z14" s="84"/>
+      <c r="AA14" s="85"/>
+      <c r="AB14" s="83"/>
+      <c r="AC14" s="84"/>
+      <c r="AD14" s="84"/>
+      <c r="AE14" s="84"/>
+      <c r="AF14" s="84"/>
+      <c r="AG14" s="84"/>
+      <c r="AH14" s="85"/>
     </row>
     <row r="15" spans="1:34" ht="24" customHeight="1">
-      <c r="B15" s="84"/>
-      <c r="C15" s="92"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="94"/>
-      <c r="G15" s="95" t="s">
-        <v>65</v>
-      </c>
-      <c r="H15" s="96"/>
-      <c r="I15" s="96"/>
-      <c r="J15" s="96"/>
-      <c r="K15" s="96"/>
-      <c r="L15" s="97"/>
-      <c r="M15" s="86" t="s">
+      <c r="B15" s="95"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="103" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="104"/>
+      <c r="I15" s="104"/>
+      <c r="J15" s="104"/>
+      <c r="K15" s="104"/>
+      <c r="L15" s="105"/>
+      <c r="M15" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="N15" s="87"/>
-      <c r="O15" s="87"/>
-      <c r="P15" s="87"/>
-      <c r="Q15" s="87"/>
-      <c r="R15" s="87"/>
-      <c r="S15" s="87"/>
-      <c r="T15" s="87"/>
-      <c r="U15" s="87"/>
-      <c r="V15" s="87"/>
-      <c r="W15" s="87"/>
-      <c r="X15" s="87"/>
-      <c r="Y15" s="87"/>
-      <c r="Z15" s="87"/>
-      <c r="AA15" s="88"/>
-      <c r="AB15" s="86"/>
-      <c r="AC15" s="87"/>
-      <c r="AD15" s="87"/>
-      <c r="AE15" s="87"/>
-      <c r="AF15" s="87"/>
-      <c r="AG15" s="87"/>
-      <c r="AH15" s="88"/>
+      <c r="N15" s="84"/>
+      <c r="O15" s="84"/>
+      <c r="P15" s="84"/>
+      <c r="Q15" s="84"/>
+      <c r="R15" s="84"/>
+      <c r="S15" s="84"/>
+      <c r="T15" s="84"/>
+      <c r="U15" s="84"/>
+      <c r="V15" s="84"/>
+      <c r="W15" s="84"/>
+      <c r="X15" s="84"/>
+      <c r="Y15" s="84"/>
+      <c r="Z15" s="84"/>
+      <c r="AA15" s="85"/>
+      <c r="AB15" s="83"/>
+      <c r="AC15" s="84"/>
+      <c r="AD15" s="84"/>
+      <c r="AE15" s="84"/>
+      <c r="AF15" s="84"/>
+      <c r="AG15" s="84"/>
+      <c r="AH15" s="85"/>
     </row>
     <row r="16" spans="1:34" ht="24" customHeight="1">
-      <c r="B16" s="84"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="95" t="s">
-        <v>66</v>
-      </c>
-      <c r="H16" s="96"/>
-      <c r="I16" s="96"/>
-      <c r="J16" s="96"/>
-      <c r="K16" s="96"/>
-      <c r="L16" s="97"/>
-      <c r="M16" s="86" t="s">
+      <c r="B16" s="95"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="103" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="104"/>
+      <c r="I16" s="104"/>
+      <c r="J16" s="104"/>
+      <c r="K16" s="104"/>
+      <c r="L16" s="105"/>
+      <c r="M16" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="N16" s="87"/>
-      <c r="O16" s="87"/>
-      <c r="P16" s="87"/>
-      <c r="Q16" s="87"/>
-      <c r="R16" s="87"/>
-      <c r="S16" s="87"/>
-      <c r="T16" s="87"/>
-      <c r="U16" s="87"/>
-      <c r="V16" s="87"/>
-      <c r="W16" s="87"/>
-      <c r="X16" s="87"/>
-      <c r="Y16" s="87"/>
-      <c r="Z16" s="87"/>
-      <c r="AA16" s="88"/>
-      <c r="AB16" s="86"/>
-      <c r="AC16" s="87"/>
-      <c r="AD16" s="87"/>
-      <c r="AE16" s="87"/>
-      <c r="AF16" s="87"/>
-      <c r="AG16" s="87"/>
-      <c r="AH16" s="88"/>
+      <c r="N16" s="84"/>
+      <c r="O16" s="84"/>
+      <c r="P16" s="84"/>
+      <c r="Q16" s="84"/>
+      <c r="R16" s="84"/>
+      <c r="S16" s="84"/>
+      <c r="T16" s="84"/>
+      <c r="U16" s="84"/>
+      <c r="V16" s="84"/>
+      <c r="W16" s="84"/>
+      <c r="X16" s="84"/>
+      <c r="Y16" s="84"/>
+      <c r="Z16" s="84"/>
+      <c r="AA16" s="85"/>
+      <c r="AB16" s="83"/>
+      <c r="AC16" s="84"/>
+      <c r="AD16" s="84"/>
+      <c r="AE16" s="84"/>
+      <c r="AF16" s="84"/>
+      <c r="AG16" s="84"/>
+      <c r="AH16" s="85"/>
     </row>
     <row r="17" spans="1:34" ht="24" customHeight="1">
-      <c r="B17" s="85"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="86" t="s">
-        <v>67</v>
-      </c>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="88"/>
-      <c r="M17" s="86" t="s">
+      <c r="B17" s="96"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" s="84"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="84"/>
+      <c r="L17" s="85"/>
+      <c r="M17" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="N17" s="87"/>
-      <c r="O17" s="87"/>
-      <c r="P17" s="87"/>
-      <c r="Q17" s="87"/>
-      <c r="R17" s="87"/>
-      <c r="S17" s="87"/>
-      <c r="T17" s="87"/>
-      <c r="U17" s="87"/>
-      <c r="V17" s="87"/>
-      <c r="W17" s="87"/>
-      <c r="X17" s="87"/>
-      <c r="Y17" s="87"/>
-      <c r="Z17" s="87"/>
-      <c r="AA17" s="88"/>
-      <c r="AB17" s="86" t="s">
+      <c r="N17" s="84"/>
+      <c r="O17" s="84"/>
+      <c r="P17" s="84"/>
+      <c r="Q17" s="84"/>
+      <c r="R17" s="84"/>
+      <c r="S17" s="84"/>
+      <c r="T17" s="84"/>
+      <c r="U17" s="84"/>
+      <c r="V17" s="84"/>
+      <c r="W17" s="84"/>
+      <c r="X17" s="84"/>
+      <c r="Y17" s="84"/>
+      <c r="Z17" s="84"/>
+      <c r="AA17" s="85"/>
+      <c r="AB17" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="AC17" s="87"/>
-      <c r="AD17" s="87"/>
-      <c r="AE17" s="87"/>
-      <c r="AF17" s="87"/>
-      <c r="AG17" s="87"/>
-      <c r="AH17" s="88"/>
+      <c r="AC17" s="84"/>
+      <c r="AD17" s="84"/>
+      <c r="AE17" s="84"/>
+      <c r="AF17" s="84"/>
+      <c r="AG17" s="84"/>
+      <c r="AH17" s="85"/>
     </row>
     <row r="18" spans="1:34" ht="24" customHeight="1">
       <c r="A18" s="61"/>
@@ -4402,7 +4407,7 @@
       <c r="E18" s="81"/>
       <c r="F18" s="81"/>
       <c r="G18" s="23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H18" s="81"/>
       <c r="I18" s="81"/>
@@ -4443,13 +4448,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="M16:AA16"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="M11:AA11"/>
-    <mergeCell ref="AB11:AH11"/>
-    <mergeCell ref="G12:L12"/>
-    <mergeCell ref="M12:AA12"/>
-    <mergeCell ref="AB12:AH12"/>
     <mergeCell ref="B12:B17"/>
     <mergeCell ref="AB16:AH16"/>
     <mergeCell ref="G17:L17"/>
@@ -4466,6 +4464,13 @@
     <mergeCell ref="M15:AA15"/>
     <mergeCell ref="AB15:AH15"/>
     <mergeCell ref="G16:L16"/>
+    <mergeCell ref="M16:AA16"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="M11:AA11"/>
+    <mergeCell ref="AB11:AH11"/>
+    <mergeCell ref="G12:L12"/>
+    <mergeCell ref="M12:AA12"/>
+    <mergeCell ref="AB12:AH12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4630,7 +4635,7 @@
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="D6" s="32" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E6" s="30"/>
       <c r="F6" s="31"/>
@@ -5173,34 +5178,34 @@
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="115" t="s">
+      <c r="E19" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="117"/>
+      <c r="F19" s="107"/>
+      <c r="G19" s="107"/>
+      <c r="H19" s="108"/>
       <c r="I19" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="J19" s="113"/>
-      <c r="K19" s="113"/>
-      <c r="L19" s="113"/>
-      <c r="M19" s="113"/>
-      <c r="N19" s="113"/>
-      <c r="O19" s="113"/>
-      <c r="P19" s="114"/>
-      <c r="Q19" s="108" t="s">
+      <c r="J19" s="120"/>
+      <c r="K19" s="120"/>
+      <c r="L19" s="120"/>
+      <c r="M19" s="120"/>
+      <c r="N19" s="120"/>
+      <c r="O19" s="120"/>
+      <c r="P19" s="113"/>
+      <c r="Q19" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="R19" s="109"/>
-      <c r="S19" s="108" t="s">
+      <c r="R19" s="117"/>
+      <c r="S19" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="T19" s="109"/>
-      <c r="U19" s="108" t="s">
+      <c r="T19" s="117"/>
+      <c r="U19" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="V19" s="109"/>
+      <c r="V19" s="117"/>
       <c r="W19" s="34"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
@@ -5223,32 +5228,32 @@
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
       <c r="D20" s="9"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="120"/>
+      <c r="E20" s="109"/>
+      <c r="F20" s="110"/>
+      <c r="G20" s="110"/>
+      <c r="H20" s="111"/>
       <c r="I20" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="J20" s="114"/>
+      <c r="J20" s="113"/>
       <c r="K20" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="L20" s="114"/>
+      <c r="L20" s="113"/>
       <c r="M20" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="N20" s="114"/>
+      <c r="N20" s="113"/>
       <c r="O20" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="P20" s="114"/>
-      <c r="Q20" s="110"/>
-      <c r="R20" s="111"/>
-      <c r="S20" s="110"/>
-      <c r="T20" s="111"/>
-      <c r="U20" s="110"/>
-      <c r="V20" s="111"/>
+      <c r="P20" s="113"/>
+      <c r="Q20" s="118"/>
+      <c r="R20" s="119"/>
+      <c r="S20" s="118"/>
+      <c r="T20" s="119"/>
+      <c r="U20" s="118"/>
+      <c r="V20" s="119"/>
       <c r="W20" s="34"/>
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
@@ -5277,28 +5282,28 @@
       <c r="F21" s="56"/>
       <c r="G21" s="56"/>
       <c r="H21" s="57"/>
-      <c r="I21" s="106" t="s">
+      <c r="I21" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="J21" s="107"/>
-      <c r="K21" s="106"/>
-      <c r="L21" s="107"/>
-      <c r="M21" s="106"/>
-      <c r="N21" s="107"/>
-      <c r="O21" s="106"/>
-      <c r="P21" s="107"/>
-      <c r="Q21" s="106" t="s">
+      <c r="J21" s="115"/>
+      <c r="K21" s="114"/>
+      <c r="L21" s="115"/>
+      <c r="M21" s="114"/>
+      <c r="N21" s="115"/>
+      <c r="O21" s="114"/>
+      <c r="P21" s="115"/>
+      <c r="Q21" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="R21" s="107"/>
-      <c r="S21" s="106">
+      <c r="R21" s="115"/>
+      <c r="S21" s="114">
         <v>5</v>
       </c>
-      <c r="T21" s="107"/>
-      <c r="U21" s="106" t="s">
+      <c r="T21" s="115"/>
+      <c r="U21" s="114" t="s">
         <v>36</v>
       </c>
-      <c r="V21" s="107"/>
+      <c r="V21" s="115"/>
       <c r="W21" s="34"/>
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
@@ -5327,30 +5332,30 @@
       <c r="F22" s="56"/>
       <c r="G22" s="56"/>
       <c r="H22" s="57"/>
-      <c r="I22" s="106" t="s">
+      <c r="I22" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="J22" s="107"/>
-      <c r="K22" s="106" t="s">
+      <c r="J22" s="115"/>
+      <c r="K22" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="L22" s="107"/>
-      <c r="M22" s="106"/>
-      <c r="N22" s="107"/>
-      <c r="O22" s="106"/>
-      <c r="P22" s="107"/>
-      <c r="Q22" s="106" t="s">
+      <c r="L22" s="115"/>
+      <c r="M22" s="114"/>
+      <c r="N22" s="115"/>
+      <c r="O22" s="114"/>
+      <c r="P22" s="115"/>
+      <c r="Q22" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="R22" s="107"/>
-      <c r="S22" s="106">
+      <c r="R22" s="115"/>
+      <c r="S22" s="114">
         <v>2</v>
       </c>
-      <c r="T22" s="107"/>
-      <c r="U22" s="106" t="s">
+      <c r="T22" s="115"/>
+      <c r="U22" s="114" t="s">
         <v>38</v>
       </c>
-      <c r="V22" s="107"/>
+      <c r="V22" s="115"/>
       <c r="W22" s="34"/>
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
@@ -5379,26 +5384,26 @@
       <c r="F23" s="53"/>
       <c r="G23" s="53"/>
       <c r="H23" s="54"/>
-      <c r="I23" s="106"/>
-      <c r="J23" s="107"/>
-      <c r="K23" s="106"/>
-      <c r="L23" s="107"/>
-      <c r="M23" s="106"/>
-      <c r="N23" s="107"/>
-      <c r="O23" s="106" t="s">
+      <c r="I23" s="114"/>
+      <c r="J23" s="115"/>
+      <c r="K23" s="114"/>
+      <c r="L23" s="115"/>
+      <c r="M23" s="114"/>
+      <c r="N23" s="115"/>
+      <c r="O23" s="114" t="s">
         <v>37</v>
       </c>
-      <c r="P23" s="107"/>
-      <c r="Q23" s="106" t="s">
+      <c r="P23" s="115"/>
+      <c r="Q23" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="R23" s="107"/>
-      <c r="S23" s="106">
+      <c r="R23" s="115"/>
+      <c r="S23" s="114">
         <v>2</v>
       </c>
-      <c r="T23" s="107"/>
-      <c r="U23" s="106"/>
-      <c r="V23" s="107"/>
+      <c r="T23" s="115"/>
+      <c r="U23" s="114"/>
+      <c r="V23" s="115"/>
       <c r="W23" s="3" t="s">
         <v>49</v>
       </c>
@@ -5429,26 +5434,26 @@
       <c r="F24" s="53"/>
       <c r="G24" s="53"/>
       <c r="H24" s="54"/>
-      <c r="I24" s="106" t="s">
+      <c r="I24" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="J24" s="107"/>
-      <c r="K24" s="106"/>
-      <c r="L24" s="107"/>
-      <c r="M24" s="106"/>
-      <c r="N24" s="107"/>
-      <c r="O24" s="106"/>
-      <c r="P24" s="107"/>
-      <c r="Q24" s="106" t="s">
+      <c r="J24" s="115"/>
+      <c r="K24" s="114"/>
+      <c r="L24" s="115"/>
+      <c r="M24" s="114"/>
+      <c r="N24" s="115"/>
+      <c r="O24" s="114"/>
+      <c r="P24" s="115"/>
+      <c r="Q24" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="R24" s="107"/>
-      <c r="S24" s="106">
+      <c r="R24" s="115"/>
+      <c r="S24" s="114">
         <v>2</v>
       </c>
-      <c r="T24" s="107"/>
-      <c r="U24" s="106"/>
-      <c r="V24" s="107"/>
+      <c r="T24" s="115"/>
+      <c r="U24" s="114"/>
+      <c r="V24" s="115"/>
       <c r="W24" s="35"/>
       <c r="X24" s="35"/>
       <c r="Y24" s="35"/>
@@ -5513,7 +5518,7 @@
       <c r="B26" s="3"/>
       <c r="C26" s="5"/>
       <c r="D26" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E26" s="62"/>
       <c r="F26" s="35"/>
@@ -5799,7 +5804,7 @@
       <c r="B33" s="3"/>
       <c r="C33" s="5"/>
       <c r="D33" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E33" s="11"/>
       <c r="F33" s="6"/>
@@ -5842,7 +5847,7 @@
       <c r="C34" s="4"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
@@ -6243,27 +6248,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="E19:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q19:R20"/>
-    <mergeCell ref="S19:T20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O22:P22"/>
     <mergeCell ref="U24:V24"/>
     <mergeCell ref="U19:V20"/>
     <mergeCell ref="U21:V21"/>
@@ -6280,6 +6264,27 @@
     <mergeCell ref="I23:J23"/>
     <mergeCell ref="I24:J24"/>
     <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q19:R20"/>
+    <mergeCell ref="S19:T20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="E19:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="I21:J21"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/docs/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DS-305_バックアップ要件定義(サンプル＆ガイド).xlsx
+++ b/docs/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DS-305_バックアップ要件定義(サンプル＆ガイド).xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DB5AC2-56B4-49B5-9C5A-79624611AE91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11970"/>
+    <workbookView xWindow="9660" yWindow="6030" windowWidth="18150" windowHeight="7395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="4" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
   <si>
     <t>５．表記例</t>
     <rPh sb="2" eb="4">
@@ -555,17 +556,6 @@
   <si>
     <t>2018年08月29日</t>
     <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t xml:space="preserve">この 作品 は </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>クリエイティブ・コモンズ 表示 - 継承 4.0 国際 ライセンス</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>の下に提供されています。</t>
   </si>
   <si>
     <r>
@@ -809,15 +799,12 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
-  <si>
-    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <name val="ＭＳ 明朝"/>
@@ -1476,6 +1463,39 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1485,15 +1505,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1521,29 +1532,29 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1563,32 +1574,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1625,7 +1612,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Text Box 7610"/>
+        <xdr:cNvPr id="2" name="Text Box 7610">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1723,52 +1716,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>94137</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="276225" y="6715125"/>
-          <a:ext cx="838200" cy="265587"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1789,7 +1736,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1848,7 +1801,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1911,7 +1870,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1984,7 +1949,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2047,7 +2018,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="直線矢印コネクタ 5"/>
+        <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="3"/>
           <a:endCxn id="4" idx="1"/>
@@ -2100,7 +2077,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2163,7 +2146,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2233,7 +2222,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2296,7 +2291,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="正方形/長方形 15"/>
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2359,7 +2360,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="正方形/長方形 16"/>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2436,7 +2443,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="正方形/長方形 17"/>
+        <xdr:cNvPr id="18" name="正方形/長方形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2499,7 +2512,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="正方形/長方形 18"/>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2562,7 +2581,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="カギ線コネクタ 19"/>
+        <xdr:cNvPr id="20" name="カギ線コネクタ 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="5" idx="3"/>
           <a:endCxn id="2" idx="1"/>
@@ -2615,7 +2640,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="カギ線コネクタ 21"/>
+        <xdr:cNvPr id="22" name="カギ線コネクタ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="3"/>
           <a:endCxn id="2" idx="1"/>
@@ -2668,7 +2699,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="カギ線コネクタ 23"/>
+        <xdr:cNvPr id="24" name="カギ線コネクタ 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="10" idx="3"/>
           <a:endCxn id="2" idx="1"/>
@@ -2721,7 +2758,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="カギ線コネクタ 25"/>
+        <xdr:cNvPr id="26" name="カギ線コネクタ 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="11" idx="3"/>
           <a:endCxn id="2" idx="1"/>
@@ -2774,7 +2817,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="カギ線コネクタ 27"/>
+        <xdr:cNvPr id="28" name="カギ線コネクタ 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="16" idx="3"/>
           <a:endCxn id="2" idx="1"/>
@@ -2827,7 +2876,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="カギ線コネクタ 29"/>
+        <xdr:cNvPr id="30" name="カギ線コネクタ 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="17" idx="3"/>
           <a:endCxn id="2" idx="1"/>
@@ -2880,7 +2935,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="カギ線コネクタ 31"/>
+        <xdr:cNvPr id="32" name="カギ線コネクタ 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="18" idx="3"/>
           <a:endCxn id="2" idx="1"/>
@@ -2933,7 +2994,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="カギ線コネクタ 33"/>
+        <xdr:cNvPr id="34" name="カギ線コネクタ 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="19" idx="3"/>
           <a:endCxn id="2" idx="1"/>
@@ -2986,7 +3053,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="直線コネクタ 35"/>
+        <xdr:cNvPr id="36" name="直線コネクタ 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3040,7 +3113,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Text Box 1"/>
+        <xdr:cNvPr id="3" name="Text Box 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3140,7 +3219,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3182,7 +3261,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3215,9 +3294,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3250,6 +3346,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3425,7 +3538,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3433,42 +3546,42 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="64"/>
       <c r="C1" s="65"/>
     </row>
-    <row r="2" spans="1:3" ht="13.5" customHeight="1">
+    <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="66"/>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="12" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="13" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="14" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="15" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="16" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="17" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="18" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="19" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="20" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="21" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="22" spans="6:19" ht="13.5" customHeight="1">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F22" s="67"/>
       <c r="H22" s="67"/>
     </row>
-    <row r="23" spans="6:19" ht="17.25" customHeight="1">
+    <row r="23" spans="6:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F23" s="67"/>
       <c r="G23" s="67"/>
       <c r="H23" s="67"/>
@@ -3477,12 +3590,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="6:19" ht="13.5" customHeight="1">
+    <row r="24" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F24" s="67"/>
       <c r="G24" s="67"/>
       <c r="H24" s="67"/>
     </row>
-    <row r="25" spans="6:19" ht="18" customHeight="1">
+    <row r="25" spans="6:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F25" s="67"/>
       <c r="G25" s="67"/>
       <c r="H25" s="67"/>
@@ -3491,38 +3604,38 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="6:19" ht="13.5" customHeight="1">
+    <row r="26" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F26" s="67"/>
       <c r="G26" s="67"/>
       <c r="H26" s="67"/>
     </row>
-    <row r="27" spans="6:19" ht="13.5" customHeight="1">
+    <row r="27" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F27" s="67"/>
       <c r="G27" s="67"/>
       <c r="H27" s="67"/>
     </row>
-    <row r="28" spans="6:19" ht="13.5" customHeight="1">
+    <row r="28" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F28" s="67"/>
       <c r="H28" s="67"/>
     </row>
-    <row r="29" spans="6:19" ht="13.5" customHeight="1">
+    <row r="29" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F29" s="67"/>
       <c r="G29" s="70"/>
       <c r="H29" s="67"/>
     </row>
-    <row r="30" spans="6:19" ht="13.5" customHeight="1">
+    <row r="30" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F30" s="67"/>
       <c r="G30" s="70"/>
       <c r="H30" s="67"/>
     </row>
-    <row r="31" spans="6:19" ht="21" customHeight="1">
+    <row r="31" spans="6:19" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F31" s="67"/>
       <c r="G31" s="70"/>
       <c r="H31" s="67"/>
       <c r="J31" s="71"/>
       <c r="R31" s="72"/>
     </row>
-    <row r="32" spans="6:19" ht="13.5" customHeight="1">
+    <row r="32" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F32" s="67"/>
       <c r="H32" s="67"/>
       <c r="L32" s="73"/>
@@ -3534,867 +3647,853 @@
       <c r="R32" s="75"/>
       <c r="S32" s="76"/>
     </row>
-    <row r="33" spans="2:25" ht="13.5" customHeight="1"/>
-    <row r="34" spans="2:25" ht="13.5" customHeight="1"/>
-    <row r="35" spans="2:25" ht="13.5" customHeight="1"/>
-    <row r="36" spans="2:25" ht="13.5" customHeight="1">
+    <row r="33" spans="5:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" spans="5:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="5:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" spans="5:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O36" s="73"/>
       <c r="P36" s="73"/>
       <c r="Q36" s="76"/>
       <c r="R36" s="76"/>
       <c r="S36" s="76"/>
     </row>
-    <row r="37" spans="2:25" ht="13.5" customHeight="1">
+    <row r="37" spans="5:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O37" s="77"/>
       <c r="P37" s="76"/>
       <c r="Q37" s="77"/>
       <c r="R37" s="76"/>
       <c r="S37" s="78"/>
     </row>
-    <row r="38" spans="2:25" ht="13.5" customHeight="1">
+    <row r="38" spans="5:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O38" s="77"/>
       <c r="P38" s="76"/>
       <c r="Q38" s="77"/>
       <c r="R38" s="76"/>
       <c r="S38" s="77"/>
     </row>
-    <row r="39" spans="2:25" ht="13.5" customHeight="1">
-      <c r="B39" s="63" t="s">
-        <v>59</v>
-      </c>
-      <c r="E39" s="79" t="s">
-        <v>60</v>
-      </c>
+    <row r="39" spans="5:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E39" s="79"/>
       <c r="O39" s="76"/>
       <c r="P39" s="76"/>
       <c r="Q39" s="77"/>
-      <c r="R39" s="77" t="s">
-        <v>61</v>
-      </c>
+      <c r="R39" s="77"/>
       <c r="S39" s="76"/>
     </row>
-    <row r="40" spans="2:25" ht="13.5" customHeight="1">
-      <c r="B40" s="63" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41" spans="2:25" ht="13.5" customHeight="1">
+    <row r="40" spans="5:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="5:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="X41" s="80"/>
       <c r="Y41" s="80"/>
     </row>
-    <row r="42" spans="2:25" ht="13.5" customHeight="1">
+    <row r="42" spans="5:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="X42" s="80"/>
       <c r="Y42" s="80"/>
     </row>
-    <row r="43" spans="2:25" ht="13.5" customHeight="1">
+    <row r="43" spans="5:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="X43" s="80"/>
       <c r="Y43" s="80"/>
     </row>
-    <row r="44" spans="2:25" ht="13.5" customHeight="1">
+    <row r="44" spans="5:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="X44" s="80"/>
       <c r="Y44" s="80"/>
     </row>
-    <row r="45" spans="2:25" ht="13.5" customHeight="1">
+    <row r="45" spans="5:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="X45" s="80"/>
       <c r="Y45" s="80"/>
     </row>
-    <row r="46" spans="2:25" ht="13.5" customHeight="1">
+    <row r="46" spans="5:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="X46" s="80"/>
       <c r="Y46" s="80"/>
     </row>
-    <row r="47" spans="2:25" ht="13.5" customHeight="1"/>
-    <row r="48" spans="2:25" ht="13.5" customHeight="1"/>
-    <row r="49" ht="13.5" customHeight="1"/>
-    <row r="50" ht="13.5" customHeight="1"/>
-    <row r="51" ht="13.5" customHeight="1"/>
-    <row r="52" ht="13.5" customHeight="1"/>
-    <row r="53" ht="13.5" customHeight="1"/>
-    <row r="54" ht="13.5" customHeight="1"/>
-    <row r="55" ht="13.5" customHeight="1"/>
-    <row r="56" ht="13.5" customHeight="1"/>
-    <row r="57" ht="13.5" customHeight="1"/>
-    <row r="58" ht="13.5" customHeight="1"/>
-    <row r="59" ht="13.5" customHeight="1"/>
-    <row r="60" ht="13.5" customHeight="1"/>
-    <row r="61" ht="13.5" customHeight="1"/>
-    <row r="62" ht="13.5" customHeight="1"/>
-    <row r="63" ht="13.5" customHeight="1"/>
-    <row r="64" ht="13.5" customHeight="1"/>
-    <row r="65" ht="13.5" customHeight="1"/>
-    <row r="66" ht="13.5" customHeight="1"/>
-    <row r="67" ht="13.5" customHeight="1"/>
-    <row r="68" ht="13.5" customHeight="1"/>
-    <row r="69" ht="13.5" customHeight="1"/>
-    <row r="70" ht="13.5" customHeight="1"/>
-    <row r="71" ht="13.5" customHeight="1"/>
-    <row r="72" ht="13.5" customHeight="1"/>
-    <row r="73" ht="13.5" customHeight="1"/>
-    <row r="74" ht="13.5" customHeight="1"/>
-    <row r="75" ht="13.5" customHeight="1"/>
-    <row r="76" ht="13.5" customHeight="1"/>
-    <row r="77" ht="13.5" customHeight="1"/>
-    <row r="78" ht="13.5" customHeight="1"/>
-    <row r="79" ht="13.5" customHeight="1"/>
-    <row r="80" ht="13.5" customHeight="1"/>
-    <row r="81" ht="13.5" customHeight="1"/>
-    <row r="82" ht="13.5" customHeight="1"/>
-    <row r="83" ht="13.5" customHeight="1"/>
-    <row r="84" ht="13.5" customHeight="1"/>
-    <row r="85" ht="13.5" customHeight="1"/>
-    <row r="86" ht="13.5" customHeight="1"/>
-    <row r="87" ht="13.5" customHeight="1"/>
-    <row r="88" ht="13.5" customHeight="1"/>
-    <row r="89" ht="13.5" customHeight="1"/>
-    <row r="90" ht="13.5" customHeight="1"/>
-    <row r="91" ht="13.5" customHeight="1"/>
-    <row r="92" ht="13.5" customHeight="1"/>
-    <row r="93" ht="13.5" customHeight="1"/>
-    <row r="94" ht="13.5" customHeight="1"/>
-    <row r="95" ht="13.5" customHeight="1"/>
-    <row r="96" ht="13.5" customHeight="1"/>
-    <row r="97" ht="13.5" customHeight="1"/>
-    <row r="98" ht="13.5" customHeight="1"/>
-    <row r="99" ht="13.5" customHeight="1"/>
-    <row r="100" ht="13.5" customHeight="1"/>
-    <row r="101" ht="13.5" customHeight="1"/>
-    <row r="102" ht="13.5" customHeight="1"/>
-    <row r="103" ht="13.5" customHeight="1"/>
-    <row r="104" ht="13.5" customHeight="1"/>
-    <row r="105" ht="13.5" customHeight="1"/>
-    <row r="106" ht="13.5" customHeight="1"/>
-    <row r="107" ht="13.5" customHeight="1"/>
-    <row r="108" ht="13.5" customHeight="1"/>
-    <row r="109" ht="13.5" customHeight="1"/>
-    <row r="110" ht="13.5" customHeight="1"/>
-    <row r="111" ht="13.5" customHeight="1"/>
-    <row r="112" ht="13.5" customHeight="1"/>
-    <row r="113" ht="13.5" customHeight="1"/>
-    <row r="114" ht="13.5" customHeight="1"/>
-    <row r="115" ht="13.5" customHeight="1"/>
-    <row r="116" ht="13.5" customHeight="1"/>
-    <row r="117" ht="13.5" customHeight="1"/>
-    <row r="118" ht="13.5" customHeight="1"/>
-    <row r="119" ht="13.5" customHeight="1"/>
-    <row r="120" ht="13.5" customHeight="1"/>
-    <row r="121" ht="13.5" customHeight="1"/>
-    <row r="122" ht="13.5" customHeight="1"/>
-    <row r="123" ht="13.5" customHeight="1"/>
-    <row r="124" ht="13.5" customHeight="1"/>
-    <row r="125" ht="13.5" customHeight="1"/>
-    <row r="126" ht="13.5" customHeight="1"/>
-    <row r="127" ht="13.5" customHeight="1"/>
-    <row r="128" ht="13.5" customHeight="1"/>
-    <row r="129" ht="13.5" customHeight="1"/>
-    <row r="130" ht="13.5" customHeight="1"/>
-    <row r="131" ht="13.5" customHeight="1"/>
-    <row r="132" ht="13.5" customHeight="1"/>
-    <row r="133" ht="13.5" customHeight="1"/>
-    <row r="134" ht="13.5" customHeight="1"/>
-    <row r="135" ht="13.5" customHeight="1"/>
-    <row r="136" ht="13.5" customHeight="1"/>
-    <row r="137" ht="13.5" customHeight="1"/>
-    <row r="138" ht="13.5" customHeight="1"/>
-    <row r="139" ht="13.5" customHeight="1"/>
-    <row r="140" ht="13.5" customHeight="1"/>
-    <row r="141" ht="13.5" customHeight="1"/>
-    <row r="142" ht="13.5" customHeight="1"/>
-    <row r="143" ht="13.5" customHeight="1"/>
-    <row r="144" ht="13.5" customHeight="1"/>
-    <row r="145" ht="13.5" customHeight="1"/>
-    <row r="146" ht="13.5" customHeight="1"/>
-    <row r="147" ht="13.5" customHeight="1"/>
-    <row r="148" ht="13.5" customHeight="1"/>
-    <row r="149" ht="13.5" customHeight="1"/>
-    <row r="150" ht="13.5" customHeight="1"/>
-    <row r="151" ht="13.5" customHeight="1"/>
-    <row r="152" ht="13.5" customHeight="1"/>
-    <row r="153" ht="13.5" customHeight="1"/>
-    <row r="154" ht="13.5" customHeight="1"/>
-    <row r="155" ht="13.5" customHeight="1"/>
-    <row r="156" ht="13.5" customHeight="1"/>
-    <row r="157" ht="13.5" customHeight="1"/>
-    <row r="158" ht="13.5" customHeight="1"/>
-    <row r="159" ht="13.5" customHeight="1"/>
-    <row r="160" ht="13.5" customHeight="1"/>
-    <row r="161" ht="13.5" customHeight="1"/>
-    <row r="162" ht="13.5" customHeight="1"/>
-    <row r="163" ht="13.5" customHeight="1"/>
-    <row r="164" ht="13.5" customHeight="1"/>
-    <row r="165" ht="13.5" customHeight="1"/>
-    <row r="166" ht="13.5" customHeight="1"/>
-    <row r="167" ht="13.5" customHeight="1"/>
-    <row r="168" ht="13.5" customHeight="1"/>
-    <row r="169" ht="13.5" customHeight="1"/>
-    <row r="170" ht="13.5" customHeight="1"/>
-    <row r="171" ht="13.5" customHeight="1"/>
-    <row r="172" ht="13.5" customHeight="1"/>
-    <row r="173" ht="13.5" customHeight="1"/>
-    <row r="174" ht="13.5" customHeight="1"/>
-    <row r="175" ht="13.5" customHeight="1"/>
-    <row r="176" ht="13.5" customHeight="1"/>
-    <row r="177" ht="13.5" customHeight="1"/>
-    <row r="178" ht="13.5" customHeight="1"/>
-    <row r="179" ht="13.5" customHeight="1"/>
-    <row r="180" ht="13.5" customHeight="1"/>
-    <row r="181" ht="13.5" customHeight="1"/>
-    <row r="182" ht="13.5" customHeight="1"/>
-    <row r="183" ht="13.5" customHeight="1"/>
-    <row r="184" ht="13.5" customHeight="1"/>
-    <row r="185" ht="13.5" customHeight="1"/>
-    <row r="186" ht="13.5" customHeight="1"/>
-    <row r="187" ht="13.5" customHeight="1"/>
-    <row r="188" ht="13.5" customHeight="1"/>
-    <row r="189" ht="13.5" customHeight="1"/>
-    <row r="190" ht="13.5" customHeight="1"/>
-    <row r="191" ht="13.5" customHeight="1"/>
-    <row r="192" ht="13.5" customHeight="1"/>
-    <row r="193" ht="13.5" customHeight="1"/>
-    <row r="194" ht="13.5" customHeight="1"/>
-    <row r="195" ht="13.5" customHeight="1"/>
-    <row r="196" ht="13.5" customHeight="1"/>
-    <row r="197" ht="13.5" customHeight="1"/>
-    <row r="198" ht="13.5" customHeight="1"/>
-    <row r="199" ht="13.5" customHeight="1"/>
-    <row r="200" ht="13.5" customHeight="1"/>
-    <row r="201" ht="13.5" customHeight="1"/>
-    <row r="202" ht="13.5" customHeight="1"/>
-    <row r="203" ht="13.5" customHeight="1"/>
-    <row r="204" ht="13.5" customHeight="1"/>
-    <row r="205" ht="13.5" customHeight="1"/>
-    <row r="206" ht="13.5" customHeight="1"/>
-    <row r="207" ht="13.5" customHeight="1"/>
-    <row r="208" ht="13.5" customHeight="1"/>
-    <row r="209" ht="13.5" customHeight="1"/>
-    <row r="210" ht="13.5" customHeight="1"/>
-    <row r="211" ht="13.5" customHeight="1"/>
-    <row r="212" ht="13.5" customHeight="1"/>
-    <row r="213" ht="13.5" customHeight="1"/>
-    <row r="214" ht="13.5" customHeight="1"/>
-    <row r="215" ht="13.5" customHeight="1"/>
-    <row r="216" ht="13.5" customHeight="1"/>
-    <row r="217" ht="13.5" customHeight="1"/>
-    <row r="218" ht="13.5" customHeight="1"/>
-    <row r="219" ht="13.5" customHeight="1"/>
-    <row r="220" ht="13.5" customHeight="1"/>
-    <row r="221" ht="13.5" customHeight="1"/>
-    <row r="222" ht="13.5" customHeight="1"/>
-    <row r="223" ht="13.5" customHeight="1"/>
-    <row r="224" ht="13.5" customHeight="1"/>
-    <row r="225" ht="13.5" customHeight="1"/>
-    <row r="226" ht="13.5" customHeight="1"/>
-    <row r="227" ht="13.5" customHeight="1"/>
-    <row r="228" ht="13.5" customHeight="1"/>
-    <row r="229" ht="13.5" customHeight="1"/>
-    <row r="230" ht="13.5" customHeight="1"/>
-    <row r="231" ht="13.5" customHeight="1"/>
-    <row r="232" ht="13.5" customHeight="1"/>
-    <row r="233" ht="13.5" customHeight="1"/>
-    <row r="234" ht="13.5" customHeight="1"/>
-    <row r="235" ht="13.5" customHeight="1"/>
-    <row r="236" ht="13.5" customHeight="1"/>
-    <row r="237" ht="13.5" customHeight="1"/>
-    <row r="238" ht="13.5" customHeight="1"/>
-    <row r="239" ht="13.5" customHeight="1"/>
-    <row r="240" ht="13.5" customHeight="1"/>
-    <row r="241" ht="13.5" customHeight="1"/>
-    <row r="242" ht="13.5" customHeight="1"/>
-    <row r="243" ht="13.5" customHeight="1"/>
-    <row r="244" ht="13.5" customHeight="1"/>
-    <row r="245" ht="13.5" customHeight="1"/>
-    <row r="246" ht="13.5" customHeight="1"/>
-    <row r="247" ht="13.5" customHeight="1"/>
-    <row r="248" ht="13.5" customHeight="1"/>
-    <row r="249" ht="13.5" customHeight="1"/>
-    <row r="250" ht="13.5" customHeight="1"/>
-    <row r="251" ht="13.5" customHeight="1"/>
-    <row r="252" ht="13.5" customHeight="1"/>
-    <row r="253" ht="13.5" customHeight="1"/>
-    <row r="254" ht="13.5" customHeight="1"/>
-    <row r="255" ht="13.5" customHeight="1"/>
-    <row r="256" ht="13.5" customHeight="1"/>
-    <row r="257" ht="13.5" customHeight="1"/>
-    <row r="258" ht="13.5" customHeight="1"/>
-    <row r="259" ht="13.5" customHeight="1"/>
-    <row r="260" ht="13.5" customHeight="1"/>
-    <row r="261" ht="13.5" customHeight="1"/>
-    <row r="262" ht="13.5" customHeight="1"/>
-    <row r="263" ht="13.5" customHeight="1"/>
-    <row r="264" ht="13.5" customHeight="1"/>
-    <row r="265" ht="13.5" customHeight="1"/>
-    <row r="266" ht="13.5" customHeight="1"/>
-    <row r="267" ht="13.5" customHeight="1"/>
-    <row r="268" ht="13.5" customHeight="1"/>
-    <row r="269" ht="13.5" customHeight="1"/>
-    <row r="270" ht="13.5" customHeight="1"/>
-    <row r="271" ht="13.5" customHeight="1"/>
-    <row r="272" ht="13.5" customHeight="1"/>
-    <row r="273" ht="13.5" customHeight="1"/>
-    <row r="274" ht="13.5" customHeight="1"/>
-    <row r="275" ht="13.5" customHeight="1"/>
-    <row r="276" ht="13.5" customHeight="1"/>
-    <row r="277" ht="13.5" customHeight="1"/>
-    <row r="278" ht="13.5" customHeight="1"/>
-    <row r="279" ht="13.5" customHeight="1"/>
-    <row r="280" ht="13.5" customHeight="1"/>
-    <row r="281" ht="13.5" customHeight="1"/>
-    <row r="282" ht="13.5" customHeight="1"/>
-    <row r="283" ht="13.5" customHeight="1"/>
-    <row r="284" ht="13.5" customHeight="1"/>
-    <row r="285" ht="13.5" customHeight="1"/>
-    <row r="286" ht="13.5" customHeight="1"/>
-    <row r="287" ht="13.5" customHeight="1"/>
-    <row r="288" ht="13.5" customHeight="1"/>
-    <row r="289" ht="13.5" customHeight="1"/>
-    <row r="290" ht="13.5" customHeight="1"/>
-    <row r="291" ht="13.5" customHeight="1"/>
-    <row r="292" ht="13.5" customHeight="1"/>
-    <row r="293" ht="13.5" customHeight="1"/>
-    <row r="294" ht="13.5" customHeight="1"/>
-    <row r="295" ht="13.5" customHeight="1"/>
-    <row r="296" ht="13.5" customHeight="1"/>
-    <row r="297" ht="13.5" customHeight="1"/>
-    <row r="298" ht="13.5" customHeight="1"/>
-    <row r="299" ht="13.5" customHeight="1"/>
-    <row r="300" ht="13.5" customHeight="1"/>
-    <row r="301" ht="13.5" customHeight="1"/>
-    <row r="302" ht="13.5" customHeight="1"/>
-    <row r="303" ht="13.5" customHeight="1"/>
-    <row r="304" ht="13.5" customHeight="1"/>
-    <row r="305" ht="13.5" customHeight="1"/>
-    <row r="306" ht="13.5" customHeight="1"/>
-    <row r="307" ht="13.5" customHeight="1"/>
-    <row r="308" ht="13.5" customHeight="1"/>
-    <row r="309" ht="13.5" customHeight="1"/>
-    <row r="310" ht="13.5" customHeight="1"/>
-    <row r="311" ht="13.5" customHeight="1"/>
-    <row r="312" ht="13.5" customHeight="1"/>
-    <row r="313" ht="13.5" customHeight="1"/>
-    <row r="314" ht="13.5" customHeight="1"/>
-    <row r="315" ht="13.5" customHeight="1"/>
-    <row r="316" ht="13.5" customHeight="1"/>
-    <row r="317" ht="13.5" customHeight="1"/>
-    <row r="318" ht="13.5" customHeight="1"/>
-    <row r="319" ht="13.5" customHeight="1"/>
-    <row r="320" ht="13.5" customHeight="1"/>
-    <row r="321" ht="13.5" customHeight="1"/>
-    <row r="322" ht="13.5" customHeight="1"/>
-    <row r="323" ht="13.5" customHeight="1"/>
-    <row r="324" ht="13.5" customHeight="1"/>
-    <row r="325" ht="13.5" customHeight="1"/>
-    <row r="326" ht="13.5" customHeight="1"/>
-    <row r="327" ht="13.5" customHeight="1"/>
-    <row r="328" ht="13.5" customHeight="1"/>
-    <row r="329" ht="13.5" customHeight="1"/>
-    <row r="330" ht="13.5" customHeight="1"/>
-    <row r="331" ht="13.5" customHeight="1"/>
-    <row r="332" ht="13.5" customHeight="1"/>
-    <row r="333" ht="13.5" customHeight="1"/>
-    <row r="334" ht="13.5" customHeight="1"/>
-    <row r="335" ht="13.5" customHeight="1"/>
-    <row r="336" ht="13.5" customHeight="1"/>
-    <row r="337" ht="13.5" customHeight="1"/>
-    <row r="338" ht="13.5" customHeight="1"/>
-    <row r="339" ht="13.5" customHeight="1"/>
-    <row r="340" ht="13.5" customHeight="1"/>
-    <row r="341" ht="13.5" customHeight="1"/>
-    <row r="342" ht="13.5" customHeight="1"/>
-    <row r="343" ht="13.5" customHeight="1"/>
-    <row r="344" ht="13.5" customHeight="1"/>
-    <row r="345" ht="13.5" customHeight="1"/>
-    <row r="346" ht="13.5" customHeight="1"/>
-    <row r="347" ht="13.5" customHeight="1"/>
-    <row r="348" ht="13.5" customHeight="1"/>
-    <row r="349" ht="13.5" customHeight="1"/>
-    <row r="350" ht="13.5" customHeight="1"/>
-    <row r="351" ht="13.5" customHeight="1"/>
-    <row r="352" ht="13.5" customHeight="1"/>
-    <row r="353" ht="13.5" customHeight="1"/>
-    <row r="354" ht="13.5" customHeight="1"/>
-    <row r="355" ht="13.5" customHeight="1"/>
-    <row r="356" ht="13.5" customHeight="1"/>
-    <row r="357" ht="13.5" customHeight="1"/>
-    <row r="358" ht="13.5" customHeight="1"/>
-    <row r="359" ht="13.5" customHeight="1"/>
-    <row r="360" ht="13.5" customHeight="1"/>
-    <row r="361" ht="13.5" customHeight="1"/>
-    <row r="362" ht="13.5" customHeight="1"/>
-    <row r="363" ht="13.5" customHeight="1"/>
-    <row r="364" ht="13.5" customHeight="1"/>
-    <row r="365" ht="13.5" customHeight="1"/>
-    <row r="366" ht="13.5" customHeight="1"/>
-    <row r="367" ht="13.5" customHeight="1"/>
-    <row r="368" ht="13.5" customHeight="1"/>
-    <row r="369" ht="13.5" customHeight="1"/>
-    <row r="370" ht="13.5" customHeight="1"/>
-    <row r="371" ht="13.5" customHeight="1"/>
-    <row r="372" ht="13.5" customHeight="1"/>
-    <row r="373" ht="13.5" customHeight="1"/>
-    <row r="374" ht="13.5" customHeight="1"/>
-    <row r="375" ht="13.5" customHeight="1"/>
-    <row r="376" ht="13.5" customHeight="1"/>
-    <row r="377" ht="13.5" customHeight="1"/>
-    <row r="378" ht="13.5" customHeight="1"/>
-    <row r="379" ht="13.5" customHeight="1"/>
-    <row r="380" ht="13.5" customHeight="1"/>
-    <row r="381" ht="13.5" customHeight="1"/>
-    <row r="382" ht="13.5" customHeight="1"/>
-    <row r="383" ht="13.5" customHeight="1"/>
-    <row r="384" ht="13.5" customHeight="1"/>
-    <row r="385" ht="13.5" customHeight="1"/>
-    <row r="386" ht="13.5" customHeight="1"/>
-    <row r="387" ht="13.5" customHeight="1"/>
-    <row r="388" ht="13.5" customHeight="1"/>
-    <row r="389" ht="13.5" customHeight="1"/>
-    <row r="390" ht="13.5" customHeight="1"/>
-    <row r="391" ht="13.5" customHeight="1"/>
-    <row r="392" ht="13.5" customHeight="1"/>
-    <row r="393" ht="13.5" customHeight="1"/>
-    <row r="394" ht="13.5" customHeight="1"/>
-    <row r="395" ht="13.5" customHeight="1"/>
-    <row r="396" ht="13.5" customHeight="1"/>
-    <row r="397" ht="13.5" customHeight="1"/>
-    <row r="398" ht="13.5" customHeight="1"/>
-    <row r="399" ht="13.5" customHeight="1"/>
-    <row r="400" ht="13.5" customHeight="1"/>
-    <row r="401" ht="13.5" customHeight="1"/>
-    <row r="402" ht="13.5" customHeight="1"/>
-    <row r="403" ht="13.5" customHeight="1"/>
-    <row r="404" ht="13.5" customHeight="1"/>
-    <row r="405" ht="13.5" customHeight="1"/>
-    <row r="406" ht="13.5" customHeight="1"/>
-    <row r="407" ht="13.5" customHeight="1"/>
-    <row r="408" ht="13.5" customHeight="1"/>
-    <row r="409" ht="13.5" customHeight="1"/>
-    <row r="410" ht="13.5" customHeight="1"/>
-    <row r="411" ht="13.5" customHeight="1"/>
-    <row r="412" ht="13.5" customHeight="1"/>
-    <row r="413" ht="13.5" customHeight="1"/>
-    <row r="414" ht="13.5" customHeight="1"/>
-    <row r="415" ht="13.5" customHeight="1"/>
-    <row r="416" ht="13.5" customHeight="1"/>
-    <row r="417" ht="13.5" customHeight="1"/>
-    <row r="418" ht="13.5" customHeight="1"/>
-    <row r="419" ht="13.5" customHeight="1"/>
-    <row r="420" ht="13.5" customHeight="1"/>
-    <row r="421" ht="13.5" customHeight="1"/>
-    <row r="422" ht="13.5" customHeight="1"/>
-    <row r="423" ht="13.5" customHeight="1"/>
-    <row r="424" ht="13.5" customHeight="1"/>
-    <row r="425" ht="13.5" customHeight="1"/>
-    <row r="426" ht="13.5" customHeight="1"/>
-    <row r="427" ht="13.5" customHeight="1"/>
-    <row r="428" ht="13.5" customHeight="1"/>
-    <row r="429" ht="13.5" customHeight="1"/>
-    <row r="430" ht="13.5" customHeight="1"/>
-    <row r="431" ht="13.5" customHeight="1"/>
-    <row r="432" ht="13.5" customHeight="1"/>
-    <row r="433" ht="13.5" customHeight="1"/>
-    <row r="434" ht="13.5" customHeight="1"/>
-    <row r="435" ht="13.5" customHeight="1"/>
-    <row r="436" ht="13.5" customHeight="1"/>
-    <row r="437" ht="13.5" customHeight="1"/>
-    <row r="438" ht="13.5" customHeight="1"/>
-    <row r="439" ht="13.5" customHeight="1"/>
-    <row r="440" ht="13.5" customHeight="1"/>
-    <row r="441" ht="13.5" customHeight="1"/>
-    <row r="442" ht="13.5" customHeight="1"/>
-    <row r="443" ht="13.5" customHeight="1"/>
-    <row r="444" ht="13.5" customHeight="1"/>
-    <row r="445" ht="13.5" customHeight="1"/>
-    <row r="446" ht="13.5" customHeight="1"/>
-    <row r="447" ht="13.5" customHeight="1"/>
-    <row r="448" ht="13.5" customHeight="1"/>
-    <row r="449" ht="13.5" customHeight="1"/>
-    <row r="450" ht="13.5" customHeight="1"/>
-    <row r="451" ht="13.5" customHeight="1"/>
-    <row r="452" ht="13.5" customHeight="1"/>
-    <row r="453" ht="13.5" customHeight="1"/>
-    <row r="454" ht="13.5" customHeight="1"/>
-    <row r="455" ht="13.5" customHeight="1"/>
-    <row r="456" ht="13.5" customHeight="1"/>
-    <row r="457" ht="13.5" customHeight="1"/>
-    <row r="458" ht="13.5" customHeight="1"/>
-    <row r="459" ht="13.5" customHeight="1"/>
-    <row r="460" ht="13.5" customHeight="1"/>
-    <row r="461" ht="13.5" customHeight="1"/>
-    <row r="462" ht="13.5" customHeight="1"/>
-    <row r="463" ht="13.5" customHeight="1"/>
-    <row r="464" ht="13.5" customHeight="1"/>
-    <row r="465" ht="13.5" customHeight="1"/>
-    <row r="466" ht="13.5" customHeight="1"/>
-    <row r="467" ht="13.5" customHeight="1"/>
-    <row r="468" ht="13.5" customHeight="1"/>
-    <row r="469" ht="13.5" customHeight="1"/>
-    <row r="470" ht="13.5" customHeight="1"/>
-    <row r="471" ht="13.5" customHeight="1"/>
-    <row r="472" ht="13.5" customHeight="1"/>
-    <row r="473" ht="13.5" customHeight="1"/>
-    <row r="474" ht="13.5" customHeight="1"/>
-    <row r="475" ht="13.5" customHeight="1"/>
-    <row r="476" ht="13.5" customHeight="1"/>
-    <row r="477" ht="13.5" customHeight="1"/>
-    <row r="478" ht="13.5" customHeight="1"/>
-    <row r="479" ht="13.5" customHeight="1"/>
-    <row r="480" ht="13.5" customHeight="1"/>
-    <row r="481" ht="13.5" customHeight="1"/>
-    <row r="482" ht="13.5" customHeight="1"/>
-    <row r="483" ht="13.5" customHeight="1"/>
-    <row r="484" ht="13.5" customHeight="1"/>
-    <row r="485" ht="13.5" customHeight="1"/>
-    <row r="486" ht="13.5" customHeight="1"/>
-    <row r="487" ht="13.5" customHeight="1"/>
-    <row r="488" ht="13.5" customHeight="1"/>
-    <row r="489" ht="13.5" customHeight="1"/>
-    <row r="490" ht="13.5" customHeight="1"/>
-    <row r="491" ht="13.5" customHeight="1"/>
-    <row r="492" ht="13.5" customHeight="1"/>
-    <row r="493" ht="13.5" customHeight="1"/>
-    <row r="494" ht="13.5" customHeight="1"/>
-    <row r="495" ht="13.5" customHeight="1"/>
-    <row r="496" ht="13.5" customHeight="1"/>
-    <row r="497" ht="13.5" customHeight="1"/>
-    <row r="498" ht="13.5" customHeight="1"/>
-    <row r="499" ht="13.5" customHeight="1"/>
-    <row r="500" ht="13.5" customHeight="1"/>
-    <row r="501" ht="13.5" customHeight="1"/>
-    <row r="502" ht="13.5" customHeight="1"/>
-    <row r="503" ht="13.5" customHeight="1"/>
-    <row r="504" ht="13.5" customHeight="1"/>
-    <row r="505" ht="13.5" customHeight="1"/>
-    <row r="506" ht="13.5" customHeight="1"/>
-    <row r="507" ht="13.5" customHeight="1"/>
-    <row r="508" ht="13.5" customHeight="1"/>
+    <row r="47" spans="5:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="5:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <hyperlinks>
-    <hyperlink ref="E39" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH39"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="5" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="5" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="12" customHeight="1">
+    <row r="1" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="12" customHeight="1">
+    <row r="2" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:34" ht="12" customHeight="1">
+    <row r="5" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:34" ht="12" customHeight="1">
+    <row r="6" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:34" ht="12" customHeight="1">
+    <row r="9" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:34" ht="24" customHeight="1" thickBot="1">
+    <row r="11" spans="1:34" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="98" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="99"/>
-      <c r="K11" s="99"/>
-      <c r="L11" s="100"/>
-      <c r="M11" s="101" t="s">
+      <c r="C11" s="86" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="88"/>
+      <c r="M11" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="N11" s="99"/>
-      <c r="O11" s="99"/>
-      <c r="P11" s="99"/>
-      <c r="Q11" s="99"/>
-      <c r="R11" s="99"/>
-      <c r="S11" s="99"/>
-      <c r="T11" s="99"/>
-      <c r="U11" s="99"/>
-      <c r="V11" s="99"/>
-      <c r="W11" s="99"/>
-      <c r="X11" s="99"/>
-      <c r="Y11" s="99"/>
-      <c r="Z11" s="99"/>
-      <c r="AA11" s="100"/>
-      <c r="AB11" s="102" t="s">
+      <c r="N11" s="87"/>
+      <c r="O11" s="87"/>
+      <c r="P11" s="87"/>
+      <c r="Q11" s="87"/>
+      <c r="R11" s="87"/>
+      <c r="S11" s="87"/>
+      <c r="T11" s="87"/>
+      <c r="U11" s="87"/>
+      <c r="V11" s="87"/>
+      <c r="W11" s="87"/>
+      <c r="X11" s="87"/>
+      <c r="Y11" s="87"/>
+      <c r="Z11" s="87"/>
+      <c r="AA11" s="88"/>
+      <c r="AB11" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="AC11" s="102"/>
-      <c r="AD11" s="102"/>
-      <c r="AE11" s="102"/>
-      <c r="AF11" s="102"/>
-      <c r="AG11" s="102"/>
-      <c r="AH11" s="102"/>
-    </row>
-    <row r="12" spans="1:34" ht="24" customHeight="1" thickTop="1">
-      <c r="B12" s="83">
+      <c r="AC11" s="90"/>
+      <c r="AD11" s="90"/>
+      <c r="AE11" s="90"/>
+      <c r="AF11" s="90"/>
+      <c r="AG11" s="90"/>
+      <c r="AH11" s="90"/>
+    </row>
+    <row r="12" spans="1:34" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="94">
         <v>1</v>
       </c>
-      <c r="C12" s="89" t="s">
+      <c r="C12" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="103" t="s">
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="91" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="92"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="92"/>
+      <c r="K12" s="92"/>
+      <c r="L12" s="93"/>
+      <c r="M12" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="N12" s="92"/>
+      <c r="O12" s="92"/>
+      <c r="P12" s="92"/>
+      <c r="Q12" s="92"/>
+      <c r="R12" s="92"/>
+      <c r="S12" s="92"/>
+      <c r="T12" s="92"/>
+      <c r="U12" s="92"/>
+      <c r="V12" s="92"/>
+      <c r="W12" s="92"/>
+      <c r="X12" s="92"/>
+      <c r="Y12" s="92"/>
+      <c r="Z12" s="92"/>
+      <c r="AA12" s="93"/>
+      <c r="AB12" s="91"/>
+      <c r="AC12" s="92"/>
+      <c r="AD12" s="92"/>
+      <c r="AE12" s="92"/>
+      <c r="AF12" s="92"/>
+      <c r="AG12" s="92"/>
+      <c r="AH12" s="93"/>
+    </row>
+    <row r="13" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="95"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="103" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="104"/>
+      <c r="I13" s="104"/>
+      <c r="J13" s="104"/>
+      <c r="K13" s="104"/>
+      <c r="L13" s="105"/>
+      <c r="M13" s="103" t="s">
+        <v>11</v>
+      </c>
+      <c r="N13" s="104"/>
+      <c r="O13" s="104"/>
+      <c r="P13" s="104"/>
+      <c r="Q13" s="104"/>
+      <c r="R13" s="104"/>
+      <c r="S13" s="104"/>
+      <c r="T13" s="104"/>
+      <c r="U13" s="104"/>
+      <c r="V13" s="104"/>
+      <c r="W13" s="104"/>
+      <c r="X13" s="104"/>
+      <c r="Y13" s="104"/>
+      <c r="Z13" s="104"/>
+      <c r="AA13" s="105"/>
+      <c r="AB13" s="103"/>
+      <c r="AC13" s="104"/>
+      <c r="AD13" s="104"/>
+      <c r="AE13" s="104"/>
+      <c r="AF13" s="104"/>
+      <c r="AG13" s="104"/>
+      <c r="AH13" s="105"/>
+    </row>
+    <row r="14" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="95"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="103" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="104"/>
+      <c r="I14" s="104"/>
+      <c r="J14" s="104"/>
+      <c r="K14" s="104"/>
+      <c r="L14" s="105"/>
+      <c r="M14" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14" s="84"/>
+      <c r="O14" s="84"/>
+      <c r="P14" s="84"/>
+      <c r="Q14" s="84"/>
+      <c r="R14" s="84"/>
+      <c r="S14" s="84"/>
+      <c r="T14" s="84"/>
+      <c r="U14" s="84"/>
+      <c r="V14" s="84"/>
+      <c r="W14" s="84"/>
+      <c r="X14" s="84"/>
+      <c r="Y14" s="84"/>
+      <c r="Z14" s="84"/>
+      <c r="AA14" s="85"/>
+      <c r="AB14" s="83"/>
+      <c r="AC14" s="84"/>
+      <c r="AD14" s="84"/>
+      <c r="AE14" s="84"/>
+      <c r="AF14" s="84"/>
+      <c r="AG14" s="84"/>
+      <c r="AH14" s="85"/>
+    </row>
+    <row r="15" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="95"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="103" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="104"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="104"/>
-      <c r="K12" s="104"/>
-      <c r="L12" s="105"/>
-      <c r="M12" s="103" t="s">
-        <v>10</v>
-      </c>
-      <c r="N12" s="104"/>
-      <c r="O12" s="104"/>
-      <c r="P12" s="104"/>
-      <c r="Q12" s="104"/>
-      <c r="R12" s="104"/>
-      <c r="S12" s="104"/>
-      <c r="T12" s="104"/>
-      <c r="U12" s="104"/>
-      <c r="V12" s="104"/>
-      <c r="W12" s="104"/>
-      <c r="X12" s="104"/>
-      <c r="Y12" s="104"/>
-      <c r="Z12" s="104"/>
-      <c r="AA12" s="105"/>
-      <c r="AB12" s="103"/>
-      <c r="AC12" s="104"/>
-      <c r="AD12" s="104"/>
-      <c r="AE12" s="104"/>
-      <c r="AF12" s="104"/>
-      <c r="AG12" s="104"/>
-      <c r="AH12" s="105"/>
-    </row>
-    <row r="13" spans="1:34" ht="24" customHeight="1">
-      <c r="B13" s="84"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="95" t="s">
+      <c r="H15" s="104"/>
+      <c r="I15" s="104"/>
+      <c r="J15" s="104"/>
+      <c r="K15" s="104"/>
+      <c r="L15" s="105"/>
+      <c r="M15" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="N15" s="84"/>
+      <c r="O15" s="84"/>
+      <c r="P15" s="84"/>
+      <c r="Q15" s="84"/>
+      <c r="R15" s="84"/>
+      <c r="S15" s="84"/>
+      <c r="T15" s="84"/>
+      <c r="U15" s="84"/>
+      <c r="V15" s="84"/>
+      <c r="W15" s="84"/>
+      <c r="X15" s="84"/>
+      <c r="Y15" s="84"/>
+      <c r="Z15" s="84"/>
+      <c r="AA15" s="85"/>
+      <c r="AB15" s="83"/>
+      <c r="AC15" s="84"/>
+      <c r="AD15" s="84"/>
+      <c r="AE15" s="84"/>
+      <c r="AF15" s="84"/>
+      <c r="AG15" s="84"/>
+      <c r="AH15" s="85"/>
+    </row>
+    <row r="16" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="95"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="103" t="s">
         <v>63</v>
       </c>
-      <c r="H13" s="96"/>
-      <c r="I13" s="96"/>
-      <c r="J13" s="96"/>
-      <c r="K13" s="96"/>
-      <c r="L13" s="97"/>
-      <c r="M13" s="95" t="s">
-        <v>11</v>
-      </c>
-      <c r="N13" s="96"/>
-      <c r="O13" s="96"/>
-      <c r="P13" s="96"/>
-      <c r="Q13" s="96"/>
-      <c r="R13" s="96"/>
-      <c r="S13" s="96"/>
-      <c r="T13" s="96"/>
-      <c r="U13" s="96"/>
-      <c r="V13" s="96"/>
-      <c r="W13" s="96"/>
-      <c r="X13" s="96"/>
-      <c r="Y13" s="96"/>
-      <c r="Z13" s="96"/>
-      <c r="AA13" s="97"/>
-      <c r="AB13" s="95"/>
-      <c r="AC13" s="96"/>
-      <c r="AD13" s="96"/>
-      <c r="AE13" s="96"/>
-      <c r="AF13" s="96"/>
-      <c r="AG13" s="96"/>
-      <c r="AH13" s="97"/>
-    </row>
-    <row r="14" spans="1:34" ht="24" customHeight="1">
-      <c r="B14" s="84"/>
-      <c r="C14" s="92"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="95" t="s">
+      <c r="H16" s="104"/>
+      <c r="I16" s="104"/>
+      <c r="J16" s="104"/>
+      <c r="K16" s="104"/>
+      <c r="L16" s="105"/>
+      <c r="M16" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="N16" s="84"/>
+      <c r="O16" s="84"/>
+      <c r="P16" s="84"/>
+      <c r="Q16" s="84"/>
+      <c r="R16" s="84"/>
+      <c r="S16" s="84"/>
+      <c r="T16" s="84"/>
+      <c r="U16" s="84"/>
+      <c r="V16" s="84"/>
+      <c r="W16" s="84"/>
+      <c r="X16" s="84"/>
+      <c r="Y16" s="84"/>
+      <c r="Z16" s="84"/>
+      <c r="AA16" s="85"/>
+      <c r="AB16" s="83"/>
+      <c r="AC16" s="84"/>
+      <c r="AD16" s="84"/>
+      <c r="AE16" s="84"/>
+      <c r="AF16" s="84"/>
+      <c r="AG16" s="84"/>
+      <c r="AH16" s="85"/>
+    </row>
+    <row r="17" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="96"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="H14" s="96"/>
-      <c r="I14" s="96"/>
-      <c r="J14" s="96"/>
-      <c r="K14" s="96"/>
-      <c r="L14" s="97"/>
-      <c r="M14" s="86" t="s">
-        <v>12</v>
-      </c>
-      <c r="N14" s="87"/>
-      <c r="O14" s="87"/>
-      <c r="P14" s="87"/>
-      <c r="Q14" s="87"/>
-      <c r="R14" s="87"/>
-      <c r="S14" s="87"/>
-      <c r="T14" s="87"/>
-      <c r="U14" s="87"/>
-      <c r="V14" s="87"/>
-      <c r="W14" s="87"/>
-      <c r="X14" s="87"/>
-      <c r="Y14" s="87"/>
-      <c r="Z14" s="87"/>
-      <c r="AA14" s="88"/>
-      <c r="AB14" s="86"/>
-      <c r="AC14" s="87"/>
-      <c r="AD14" s="87"/>
-      <c r="AE14" s="87"/>
-      <c r="AF14" s="87"/>
-      <c r="AG14" s="87"/>
-      <c r="AH14" s="88"/>
-    </row>
-    <row r="15" spans="1:34" ht="24" customHeight="1">
-      <c r="B15" s="84"/>
-      <c r="C15" s="92"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="94"/>
-      <c r="G15" s="95" t="s">
-        <v>65</v>
-      </c>
-      <c r="H15" s="96"/>
-      <c r="I15" s="96"/>
-      <c r="J15" s="96"/>
-      <c r="K15" s="96"/>
-      <c r="L15" s="97"/>
-      <c r="M15" s="86" t="s">
-        <v>13</v>
-      </c>
-      <c r="N15" s="87"/>
-      <c r="O15" s="87"/>
-      <c r="P15" s="87"/>
-      <c r="Q15" s="87"/>
-      <c r="R15" s="87"/>
-      <c r="S15" s="87"/>
-      <c r="T15" s="87"/>
-      <c r="U15" s="87"/>
-      <c r="V15" s="87"/>
-      <c r="W15" s="87"/>
-      <c r="X15" s="87"/>
-      <c r="Y15" s="87"/>
-      <c r="Z15" s="87"/>
-      <c r="AA15" s="88"/>
-      <c r="AB15" s="86"/>
-      <c r="AC15" s="87"/>
-      <c r="AD15" s="87"/>
-      <c r="AE15" s="87"/>
-      <c r="AF15" s="87"/>
-      <c r="AG15" s="87"/>
-      <c r="AH15" s="88"/>
-    </row>
-    <row r="16" spans="1:34" ht="24" customHeight="1">
-      <c r="B16" s="84"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="95" t="s">
-        <v>66</v>
-      </c>
-      <c r="H16" s="96"/>
-      <c r="I16" s="96"/>
-      <c r="J16" s="96"/>
-      <c r="K16" s="96"/>
-      <c r="L16" s="97"/>
-      <c r="M16" s="86" t="s">
-        <v>14</v>
-      </c>
-      <c r="N16" s="87"/>
-      <c r="O16" s="87"/>
-      <c r="P16" s="87"/>
-      <c r="Q16" s="87"/>
-      <c r="R16" s="87"/>
-      <c r="S16" s="87"/>
-      <c r="T16" s="87"/>
-      <c r="U16" s="87"/>
-      <c r="V16" s="87"/>
-      <c r="W16" s="87"/>
-      <c r="X16" s="87"/>
-      <c r="Y16" s="87"/>
-      <c r="Z16" s="87"/>
-      <c r="AA16" s="88"/>
-      <c r="AB16" s="86"/>
-      <c r="AC16" s="87"/>
-      <c r="AD16" s="87"/>
-      <c r="AE16" s="87"/>
-      <c r="AF16" s="87"/>
-      <c r="AG16" s="87"/>
-      <c r="AH16" s="88"/>
-    </row>
-    <row r="17" spans="1:34" ht="24" customHeight="1">
-      <c r="B17" s="85"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="86" t="s">
-        <v>67</v>
-      </c>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="88"/>
-      <c r="M17" s="86" t="s">
+      <c r="H17" s="84"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="84"/>
+      <c r="L17" s="85"/>
+      <c r="M17" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="N17" s="87"/>
-      <c r="O17" s="87"/>
-      <c r="P17" s="87"/>
-      <c r="Q17" s="87"/>
-      <c r="R17" s="87"/>
-      <c r="S17" s="87"/>
-      <c r="T17" s="87"/>
-      <c r="U17" s="87"/>
-      <c r="V17" s="87"/>
-      <c r="W17" s="87"/>
-      <c r="X17" s="87"/>
-      <c r="Y17" s="87"/>
-      <c r="Z17" s="87"/>
-      <c r="AA17" s="88"/>
-      <c r="AB17" s="86" t="s">
+      <c r="N17" s="84"/>
+      <c r="O17" s="84"/>
+      <c r="P17" s="84"/>
+      <c r="Q17" s="84"/>
+      <c r="R17" s="84"/>
+      <c r="S17" s="84"/>
+      <c r="T17" s="84"/>
+      <c r="U17" s="84"/>
+      <c r="V17" s="84"/>
+      <c r="W17" s="84"/>
+      <c r="X17" s="84"/>
+      <c r="Y17" s="84"/>
+      <c r="Z17" s="84"/>
+      <c r="AA17" s="85"/>
+      <c r="AB17" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="AC17" s="87"/>
-      <c r="AD17" s="87"/>
-      <c r="AE17" s="87"/>
-      <c r="AF17" s="87"/>
-      <c r="AG17" s="87"/>
-      <c r="AH17" s="88"/>
-    </row>
-    <row r="18" spans="1:34" ht="24" customHeight="1">
+      <c r="AC17" s="84"/>
+      <c r="AD17" s="84"/>
+      <c r="AE17" s="84"/>
+      <c r="AF17" s="84"/>
+      <c r="AG17" s="84"/>
+      <c r="AH17" s="85"/>
+    </row>
+    <row r="18" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="61"/>
       <c r="B18" s="23"/>
       <c r="C18" s="81"/>
@@ -4402,7 +4501,7 @@
       <c r="E18" s="81"/>
       <c r="F18" s="81"/>
       <c r="G18" s="23" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H18" s="81"/>
       <c r="I18" s="81"/>
@@ -4432,24 +4531,17 @@
       <c r="AG18" s="24"/>
       <c r="AH18" s="24"/>
     </row>
-    <row r="20" spans="1:34" ht="12" customHeight="1">
+    <row r="20" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:34" ht="13.5" customHeight="1"/>
-    <row r="39" spans="20:20" ht="12" customHeight="1">
+    <row r="25" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" spans="20:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="T39" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="M16:AA16"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="M11:AA11"/>
-    <mergeCell ref="AB11:AH11"/>
-    <mergeCell ref="G12:L12"/>
-    <mergeCell ref="M12:AA12"/>
-    <mergeCell ref="AB12:AH12"/>
     <mergeCell ref="B12:B17"/>
     <mergeCell ref="AB16:AH16"/>
     <mergeCell ref="G17:L17"/>
@@ -4466,6 +4558,13 @@
     <mergeCell ref="M15:AA15"/>
     <mergeCell ref="AB15:AH15"/>
     <mergeCell ref="G16:L16"/>
+    <mergeCell ref="M16:AA16"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="M11:AA11"/>
+    <mergeCell ref="AB11:AH11"/>
+    <mergeCell ref="G12:L12"/>
+    <mergeCell ref="M12:AA12"/>
+    <mergeCell ref="AB12:AH12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4481,12 +4580,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AM46"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5" defaultRowHeight="12" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="5" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" style="11"/>
     <col min="2" max="2" width="8" style="11" bestFit="1" customWidth="1"/>
@@ -4497,13 +4596,13 @@
     <col min="38" max="16384" width="5" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="12" customHeight="1">
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:39" s="1" customFormat="1" ht="12" customHeight="1"/>
-    <row r="3" spans="1:39" s="1" customFormat="1" ht="24" customHeight="1">
+    <row r="2" spans="1:39" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:39" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>50</v>
@@ -4544,7 +4643,7 @@
       <c r="AK3" s="3"/>
       <c r="AL3" s="3"/>
     </row>
-    <row r="4" spans="1:39" s="1" customFormat="1" ht="24" customHeight="1">
+    <row r="4" spans="1:39" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>51</v>
@@ -4585,7 +4684,7 @@
       <c r="AK4" s="3"/>
       <c r="AL4" s="3"/>
     </row>
-    <row r="5" spans="1:39" s="1" customFormat="1" ht="24" customHeight="1">
+    <row r="5" spans="1:39" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="D5" s="3" t="s">
@@ -4626,11 +4725,11 @@
       <c r="AK5" s="3"/>
       <c r="AL5" s="3"/>
     </row>
-    <row r="6" spans="1:39" s="1" customFormat="1" ht="24" customHeight="1">
+    <row r="6" spans="1:39" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="D6" s="32" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E6" s="30"/>
       <c r="F6" s="31"/>
@@ -4667,7 +4766,7 @@
       <c r="AK6" s="3"/>
       <c r="AL6" s="3"/>
     </row>
-    <row r="7" spans="1:39" s="1" customFormat="1" ht="24" customHeight="1">
+    <row r="7" spans="1:39" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>52</v>
@@ -4710,7 +4809,7 @@
       <c r="AL7" s="3"/>
       <c r="AM7" s="8"/>
     </row>
-    <row r="8" spans="1:39" s="1" customFormat="1" ht="24" customHeight="1">
+    <row r="8" spans="1:39" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="33"/>
@@ -4752,7 +4851,7 @@
       <c r="AK8" s="3"/>
       <c r="AL8" s="3"/>
     </row>
-    <row r="9" spans="1:39" s="1" customFormat="1" ht="24" customHeight="1">
+    <row r="9" spans="1:39" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
@@ -4794,7 +4893,7 @@
       <c r="AK9" s="3"/>
       <c r="AL9" s="3"/>
     </row>
-    <row r="10" spans="1:39" s="1" customFormat="1" ht="24" customHeight="1">
+    <row r="10" spans="1:39" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
@@ -4836,7 +4935,7 @@
       <c r="AK10" s="3"/>
       <c r="AL10" s="3"/>
     </row>
-    <row r="11" spans="1:39" s="1" customFormat="1" ht="24" customHeight="1">
+    <row r="11" spans="1:39" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
@@ -4878,7 +4977,7 @@
       <c r="AK11" s="3"/>
       <c r="AL11" s="3"/>
     </row>
-    <row r="12" spans="1:39" s="1" customFormat="1" ht="24" customHeight="1">
+    <row r="12" spans="1:39" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="25"/>
       <c r="C12" s="9"/>
@@ -4920,7 +5019,7 @@
       <c r="AK12" s="3"/>
       <c r="AL12" s="3"/>
     </row>
-    <row r="13" spans="1:39" s="1" customFormat="1" ht="24" customHeight="1">
+    <row r="13" spans="1:39" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="25"/>
       <c r="C13" s="9"/>
@@ -4962,7 +5061,7 @@
       <c r="AK13" s="3"/>
       <c r="AL13" s="3"/>
     </row>
-    <row r="14" spans="1:39" s="1" customFormat="1" ht="24" customHeight="1">
+    <row r="14" spans="1:39" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
       <c r="B14" s="25"/>
       <c r="C14" s="9"/>
@@ -5004,7 +5103,7 @@
       <c r="AK14" s="3"/>
       <c r="AL14" s="3"/>
     </row>
-    <row r="15" spans="1:39" s="1" customFormat="1" ht="24" customHeight="1">
+    <row r="15" spans="1:39" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="25"/>
       <c r="C15" s="9"/>
@@ -5044,7 +5143,7 @@
       <c r="AK15" s="3"/>
       <c r="AL15" s="3"/>
     </row>
-    <row r="16" spans="1:39" s="1" customFormat="1" ht="24" customHeight="1">
+    <row r="16" spans="1:39" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="25" t="s">
         <v>53</v>
@@ -5086,7 +5185,7 @@
       <c r="AK16" s="3"/>
       <c r="AL16" s="3"/>
     </row>
-    <row r="17" spans="1:38" s="1" customFormat="1" ht="24" customHeight="1">
+    <row r="17" spans="1:38" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
@@ -5128,7 +5227,7 @@
       <c r="AK17" s="3"/>
       <c r="AL17" s="3"/>
     </row>
-    <row r="18" spans="1:38" s="1" customFormat="1" ht="24" customHeight="1">
+    <row r="18" spans="1:38" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
@@ -5168,39 +5267,39 @@
       <c r="AK18" s="3"/>
       <c r="AL18" s="3"/>
     </row>
-    <row r="19" spans="1:38" s="1" customFormat="1" ht="24" customHeight="1">
+    <row r="19" spans="1:38" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="115" t="s">
+      <c r="E19" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="117"/>
+      <c r="F19" s="107"/>
+      <c r="G19" s="107"/>
+      <c r="H19" s="108"/>
       <c r="I19" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="J19" s="113"/>
-      <c r="K19" s="113"/>
-      <c r="L19" s="113"/>
-      <c r="M19" s="113"/>
-      <c r="N19" s="113"/>
-      <c r="O19" s="113"/>
-      <c r="P19" s="114"/>
-      <c r="Q19" s="108" t="s">
+      <c r="J19" s="120"/>
+      <c r="K19" s="120"/>
+      <c r="L19" s="120"/>
+      <c r="M19" s="120"/>
+      <c r="N19" s="120"/>
+      <c r="O19" s="120"/>
+      <c r="P19" s="113"/>
+      <c r="Q19" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="R19" s="109"/>
-      <c r="S19" s="108" t="s">
+      <c r="R19" s="117"/>
+      <c r="S19" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="T19" s="109"/>
-      <c r="U19" s="108" t="s">
+      <c r="T19" s="117"/>
+      <c r="U19" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="V19" s="109"/>
+      <c r="V19" s="117"/>
       <c r="W19" s="34"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
@@ -5218,37 +5317,37 @@
       <c r="AK19" s="3"/>
       <c r="AL19" s="3"/>
     </row>
-    <row r="20" spans="1:38" s="1" customFormat="1" ht="24" customHeight="1">
+    <row r="20" spans="1:38" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
       <c r="D20" s="9"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="120"/>
+      <c r="E20" s="109"/>
+      <c r="F20" s="110"/>
+      <c r="G20" s="110"/>
+      <c r="H20" s="111"/>
       <c r="I20" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="J20" s="114"/>
+      <c r="J20" s="113"/>
       <c r="K20" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="L20" s="114"/>
+      <c r="L20" s="113"/>
       <c r="M20" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="N20" s="114"/>
+      <c r="N20" s="113"/>
       <c r="O20" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="P20" s="114"/>
-      <c r="Q20" s="110"/>
-      <c r="R20" s="111"/>
-      <c r="S20" s="110"/>
-      <c r="T20" s="111"/>
-      <c r="U20" s="110"/>
-      <c r="V20" s="111"/>
+      <c r="P20" s="113"/>
+      <c r="Q20" s="118"/>
+      <c r="R20" s="119"/>
+      <c r="S20" s="118"/>
+      <c r="T20" s="119"/>
+      <c r="U20" s="118"/>
+      <c r="V20" s="119"/>
       <c r="W20" s="34"/>
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
@@ -5266,7 +5365,7 @@
       <c r="AK20" s="3"/>
       <c r="AL20" s="3"/>
     </row>
-    <row r="21" spans="1:38" s="1" customFormat="1" ht="24" customHeight="1">
+    <row r="21" spans="1:38" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -5277,28 +5376,28 @@
       <c r="F21" s="56"/>
       <c r="G21" s="56"/>
       <c r="H21" s="57"/>
-      <c r="I21" s="106" t="s">
+      <c r="I21" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="J21" s="107"/>
-      <c r="K21" s="106"/>
-      <c r="L21" s="107"/>
-      <c r="M21" s="106"/>
-      <c r="N21" s="107"/>
-      <c r="O21" s="106"/>
-      <c r="P21" s="107"/>
-      <c r="Q21" s="106" t="s">
+      <c r="J21" s="115"/>
+      <c r="K21" s="114"/>
+      <c r="L21" s="115"/>
+      <c r="M21" s="114"/>
+      <c r="N21" s="115"/>
+      <c r="O21" s="114"/>
+      <c r="P21" s="115"/>
+      <c r="Q21" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="R21" s="107"/>
-      <c r="S21" s="106">
+      <c r="R21" s="115"/>
+      <c r="S21" s="114">
         <v>5</v>
       </c>
-      <c r="T21" s="107"/>
-      <c r="U21" s="106" t="s">
+      <c r="T21" s="115"/>
+      <c r="U21" s="114" t="s">
         <v>36</v>
       </c>
-      <c r="V21" s="107"/>
+      <c r="V21" s="115"/>
       <c r="W21" s="34"/>
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
@@ -5316,7 +5415,7 @@
       <c r="AK21" s="3"/>
       <c r="AL21" s="3"/>
     </row>
-    <row r="22" spans="1:38" s="1" customFormat="1" ht="24" customHeight="1">
+    <row r="22" spans="1:38" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -5327,30 +5426,30 @@
       <c r="F22" s="56"/>
       <c r="G22" s="56"/>
       <c r="H22" s="57"/>
-      <c r="I22" s="106" t="s">
+      <c r="I22" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="J22" s="107"/>
-      <c r="K22" s="106" t="s">
+      <c r="J22" s="115"/>
+      <c r="K22" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="L22" s="107"/>
-      <c r="M22" s="106"/>
-      <c r="N22" s="107"/>
-      <c r="O22" s="106"/>
-      <c r="P22" s="107"/>
-      <c r="Q22" s="106" t="s">
+      <c r="L22" s="115"/>
+      <c r="M22" s="114"/>
+      <c r="N22" s="115"/>
+      <c r="O22" s="114"/>
+      <c r="P22" s="115"/>
+      <c r="Q22" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="R22" s="107"/>
-      <c r="S22" s="106">
+      <c r="R22" s="115"/>
+      <c r="S22" s="114">
         <v>2</v>
       </c>
-      <c r="T22" s="107"/>
-      <c r="U22" s="106" t="s">
+      <c r="T22" s="115"/>
+      <c r="U22" s="114" t="s">
         <v>38</v>
       </c>
-      <c r="V22" s="107"/>
+      <c r="V22" s="115"/>
       <c r="W22" s="34"/>
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
@@ -5368,7 +5467,7 @@
       <c r="AK22" s="3"/>
       <c r="AL22" s="3"/>
     </row>
-    <row r="23" spans="1:38" s="1" customFormat="1" ht="24" customHeight="1">
+    <row r="23" spans="1:38" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="5"/>
@@ -5379,26 +5478,26 @@
       <c r="F23" s="53"/>
       <c r="G23" s="53"/>
       <c r="H23" s="54"/>
-      <c r="I23" s="106"/>
-      <c r="J23" s="107"/>
-      <c r="K23" s="106"/>
-      <c r="L23" s="107"/>
-      <c r="M23" s="106"/>
-      <c r="N23" s="107"/>
-      <c r="O23" s="106" t="s">
+      <c r="I23" s="114"/>
+      <c r="J23" s="115"/>
+      <c r="K23" s="114"/>
+      <c r="L23" s="115"/>
+      <c r="M23" s="114"/>
+      <c r="N23" s="115"/>
+      <c r="O23" s="114" t="s">
         <v>37</v>
       </c>
-      <c r="P23" s="107"/>
-      <c r="Q23" s="106" t="s">
+      <c r="P23" s="115"/>
+      <c r="Q23" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="R23" s="107"/>
-      <c r="S23" s="106">
+      <c r="R23" s="115"/>
+      <c r="S23" s="114">
         <v>2</v>
       </c>
-      <c r="T23" s="107"/>
-      <c r="U23" s="106"/>
-      <c r="V23" s="107"/>
+      <c r="T23" s="115"/>
+      <c r="U23" s="114"/>
+      <c r="V23" s="115"/>
       <c r="W23" s="3" t="s">
         <v>49</v>
       </c>
@@ -5418,7 +5517,7 @@
       <c r="AK23" s="3"/>
       <c r="AL23" s="3"/>
     </row>
-    <row r="24" spans="1:38" s="1" customFormat="1" ht="24" customHeight="1">
+    <row r="24" spans="1:38" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="5"/>
@@ -5429,26 +5528,26 @@
       <c r="F24" s="53"/>
       <c r="G24" s="53"/>
       <c r="H24" s="54"/>
-      <c r="I24" s="106" t="s">
+      <c r="I24" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="J24" s="107"/>
-      <c r="K24" s="106"/>
-      <c r="L24" s="107"/>
-      <c r="M24" s="106"/>
-      <c r="N24" s="107"/>
-      <c r="O24" s="106"/>
-      <c r="P24" s="107"/>
-      <c r="Q24" s="106" t="s">
+      <c r="J24" s="115"/>
+      <c r="K24" s="114"/>
+      <c r="L24" s="115"/>
+      <c r="M24" s="114"/>
+      <c r="N24" s="115"/>
+      <c r="O24" s="114"/>
+      <c r="P24" s="115"/>
+      <c r="Q24" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="R24" s="107"/>
-      <c r="S24" s="106">
+      <c r="R24" s="115"/>
+      <c r="S24" s="114">
         <v>2</v>
       </c>
-      <c r="T24" s="107"/>
-      <c r="U24" s="106"/>
-      <c r="V24" s="107"/>
+      <c r="T24" s="115"/>
+      <c r="U24" s="114"/>
+      <c r="V24" s="115"/>
       <c r="W24" s="35"/>
       <c r="X24" s="35"/>
       <c r="Y24" s="35"/>
@@ -5466,7 +5565,7 @@
       <c r="AK24" s="3"/>
       <c r="AL24" s="3"/>
     </row>
-    <row r="25" spans="1:38" s="1" customFormat="1" ht="24" customHeight="1">
+    <row r="25" spans="1:38" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="5"/>
@@ -5508,12 +5607,12 @@
       <c r="AK25" s="3"/>
       <c r="AL25" s="3"/>
     </row>
-    <row r="26" spans="1:38" s="1" customFormat="1" ht="24" customHeight="1">
+    <row r="26" spans="1:38" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="5"/>
       <c r="D26" s="9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E26" s="62"/>
       <c r="F26" s="35"/>
@@ -5550,7 +5649,7 @@
       <c r="AK26" s="3"/>
       <c r="AL26" s="3"/>
     </row>
-    <row r="27" spans="1:38" s="1" customFormat="1" ht="24" customHeight="1">
+    <row r="27" spans="1:38" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="5"/>
@@ -5590,7 +5689,7 @@
       <c r="AK27" s="3"/>
       <c r="AL27" s="3"/>
     </row>
-    <row r="28" spans="1:38" s="1" customFormat="1" ht="24" customHeight="1">
+    <row r="28" spans="1:38" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
       <c r="B28" s="25" t="s">
         <v>54</v>
@@ -5632,7 +5731,7 @@
       <c r="AK28" s="3"/>
       <c r="AL28" s="3"/>
     </row>
-    <row r="29" spans="1:38" s="1" customFormat="1" ht="24" customHeight="1">
+    <row r="29" spans="1:38" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="5"/>
@@ -5673,7 +5772,7 @@
       <c r="AK29" s="3"/>
       <c r="AL29" s="3"/>
     </row>
-    <row r="30" spans="1:38" s="1" customFormat="1" ht="24" customHeight="1">
+    <row r="30" spans="1:38" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="5"/>
@@ -5714,7 +5813,7 @@
       <c r="AK30" s="3"/>
       <c r="AL30" s="3"/>
     </row>
-    <row r="31" spans="1:38" s="1" customFormat="1" ht="24" customHeight="1">
+    <row r="31" spans="1:38" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="4"/>
@@ -5753,7 +5852,7 @@
       <c r="AK31" s="3"/>
       <c r="AL31" s="3"/>
     </row>
-    <row r="32" spans="1:38" s="1" customFormat="1" ht="24" customHeight="1">
+    <row r="32" spans="1:38" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
         <v>55</v>
@@ -5794,12 +5893,12 @@
       <c r="AK32" s="3"/>
       <c r="AL32" s="3"/>
     </row>
-    <row r="33" spans="1:38" s="1" customFormat="1" ht="24" customHeight="1">
+    <row r="33" spans="1:38" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="5"/>
       <c r="D33" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E33" s="11"/>
       <c r="F33" s="6"/>
@@ -5836,13 +5935,13 @@
       <c r="AK33" s="3"/>
       <c r="AL33" s="3"/>
     </row>
-    <row r="34" spans="1:38" s="1" customFormat="1" ht="24" customHeight="1">
+    <row r="34" spans="1:38" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="4"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
@@ -5878,7 +5977,7 @@
       <c r="AK34" s="3"/>
       <c r="AL34" s="3"/>
     </row>
-    <row r="35" spans="1:38" s="1" customFormat="1" ht="24" customHeight="1">
+    <row r="35" spans="1:38" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
         <v>56</v>
@@ -5920,7 +6019,7 @@
       <c r="AK35" s="3"/>
       <c r="AL35" s="3"/>
     </row>
-    <row r="36" spans="1:38" s="1" customFormat="1" ht="24" customHeight="1">
+    <row r="36" spans="1:38" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3"/>
       <c r="B36" s="42"/>
       <c r="C36" s="28"/>
@@ -5960,7 +6059,7 @@
       <c r="AK36" s="3"/>
       <c r="AL36" s="3"/>
     </row>
-    <row r="37" spans="1:38" s="1" customFormat="1" ht="24" customHeight="1">
+    <row r="37" spans="1:38" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3"/>
       <c r="B37" s="42"/>
       <c r="C37" s="44"/>
@@ -6000,7 +6099,7 @@
       <c r="AK37" s="3"/>
       <c r="AL37" s="3"/>
     </row>
-    <row r="38" spans="1:38" s="1" customFormat="1" ht="13.5" customHeight="1">
+    <row r="38" spans="1:38" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C38" s="13"/>
       <c r="D38" s="14"/>
       <c r="E38" s="15"/>
@@ -6038,7 +6137,7 @@
       <c r="AK38" s="16"/>
       <c r="AL38" s="16"/>
     </row>
-    <row r="39" spans="1:38" s="1" customFormat="1" ht="12" customHeight="1">
+    <row r="39" spans="1:38" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C39" s="17"/>
       <c r="D39" s="17"/>
       <c r="E39" s="18"/>
@@ -6076,7 +6175,7 @@
       <c r="AK39" s="18"/>
       <c r="AL39" s="18"/>
     </row>
-    <row r="40" spans="1:38" s="1" customFormat="1" ht="12" customHeight="1">
+    <row r="40" spans="1:38" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="17"/>
@@ -6116,7 +6215,7 @@
       <c r="AK40" s="20"/>
       <c r="AL40" s="20"/>
     </row>
-    <row r="41" spans="1:38" s="1" customFormat="1" ht="12" customHeight="1">
+    <row r="41" spans="1:38" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="21"/>
@@ -6156,7 +6255,7 @@
       <c r="AK41" s="18"/>
       <c r="AL41" s="18"/>
     </row>
-    <row r="42" spans="1:38" ht="12" customHeight="1">
+    <row r="42" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C42" s="21"/>
       <c r="D42" s="21"/>
       <c r="E42" s="21"/>
@@ -6173,7 +6272,7 @@
       <c r="P42" s="21"/>
       <c r="Q42" s="21"/>
     </row>
-    <row r="43" spans="1:38" ht="12" customHeight="1">
+    <row r="43" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="22"/>
       <c r="D43" s="21"/>
       <c r="E43" s="21"/>
@@ -6190,7 +6289,7 @@
       <c r="P43" s="21"/>
       <c r="Q43" s="21"/>
     </row>
-    <row r="44" spans="1:38" ht="12" customHeight="1">
+    <row r="44" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C44" s="22"/>
       <c r="D44" s="21"/>
       <c r="E44" s="21"/>
@@ -6207,7 +6306,7 @@
       <c r="P44" s="21"/>
       <c r="Q44" s="21"/>
     </row>
-    <row r="45" spans="1:38" ht="12" customHeight="1">
+    <row r="45" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C45" s="21"/>
       <c r="D45" s="21"/>
       <c r="E45" s="21"/>
@@ -6224,7 +6323,7 @@
       <c r="P45" s="21"/>
       <c r="Q45" s="21"/>
     </row>
-    <row r="46" spans="1:38" ht="12" customHeight="1">
+    <row r="46" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C46" s="21"/>
       <c r="D46" s="21"/>
       <c r="E46" s="21"/>
@@ -6243,27 +6342,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="E19:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q19:R20"/>
-    <mergeCell ref="S19:T20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O22:P22"/>
     <mergeCell ref="U24:V24"/>
     <mergeCell ref="U19:V20"/>
     <mergeCell ref="U21:V21"/>
@@ -6280,6 +6358,27 @@
     <mergeCell ref="I23:J23"/>
     <mergeCell ref="I24:J24"/>
     <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q19:R20"/>
+    <mergeCell ref="S19:T20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="E19:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="I21:J21"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
